--- a/2023 Report/FF_2023.xlsx
+++ b/2023 Report/FF_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="21760" windowHeight="15540" tabRatio="500" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="12620" windowHeight="15540" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'margin-game'!$K$3:$Q$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'pa-clean'!$B$14:$H$148</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scores!$P$20:$Q$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'wins-per-team'!$A$1:$E$145</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -2131,6 +2132,17 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2188,6 +2200,9 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2226,20 +2241,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2528,7 +2529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K12" sqref="K12:P12"/>
     </sheetView>
   </sheetViews>
@@ -4160,15 +4161,15 @@
     </row>
     <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="309" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305"/>
-      <c r="H2" s="306"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="311"/>
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -11012,23 +11013,23 @@
     </row>
     <row r="2" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="309" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="306"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="311"/>
       <c r="H2" s="133"/>
       <c r="I2" s="43"/>
       <c r="J2" s="35"/>
-      <c r="K2" s="310" t="s">
+      <c r="K2" s="315" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="311"/>
-      <c r="M2" s="311"/>
-      <c r="N2" s="312"/>
+      <c r="L2" s="316"/>
+      <c r="M2" s="316"/>
+      <c r="N2" s="317"/>
       <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -11550,14 +11551,14 @@
     </row>
     <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="303" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="300"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="305"/>
       <c r="H2" s="133"/>
       <c r="I2" s="45"/>
     </row>
@@ -12309,14 +12310,14 @@
     </row>
     <row r="38" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
-      <c r="B38" s="298" t="s">
+      <c r="B38" s="303" t="s">
         <v>230</v>
       </c>
-      <c r="C38" s="299"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
-      <c r="G38" s="300"/>
+      <c r="C38" s="304"/>
+      <c r="D38" s="304"/>
+      <c r="E38" s="304"/>
+      <c r="F38" s="304"/>
+      <c r="G38" s="305"/>
       <c r="H38" s="35"/>
     </row>
     <row r="39" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -12616,23 +12617,23 @@
     </row>
     <row r="2" spans="2:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H2" s="35"/>
-      <c r="I2" s="313" t="s">
+      <c r="I2" s="318" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
-      <c r="N2" s="315"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="319"/>
+      <c r="N2" s="320"/>
       <c r="O2" s="35"/>
-      <c r="P2" s="313" t="s">
+      <c r="P2" s="318" t="s">
         <v>233</v>
       </c>
-      <c r="Q2" s="314"/>
-      <c r="R2" s="314"/>
-      <c r="S2" s="314"/>
-      <c r="T2" s="314"/>
-      <c r="U2" s="315"/>
+      <c r="Q2" s="319"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="319"/>
+      <c r="T2" s="319"/>
+      <c r="U2" s="320"/>
       <c r="V2" s="35"/>
     </row>
     <row r="3" spans="2:22" ht="30" x14ac:dyDescent="0.2">
@@ -16122,7 +16123,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16139,11 +16140,11 @@
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="303" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="299"/>
-      <c r="D2" s="300"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="305"/>
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -16317,21 +16318,21 @@
     </row>
     <row r="16" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
-      <c r="B16" s="335" t="s">
+      <c r="B16" s="322" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="335"/>
-      <c r="D16" s="335"/>
+      <c r="C16" s="322"/>
+      <c r="D16" s="322"/>
       <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
-      <c r="B17" s="316" t="s">
+      <c r="B17" s="321" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="316"/>
-      <c r="D17" s="316"/>
-      <c r="E17" s="316"/>
+      <c r="C17" s="321"/>
+      <c r="D17" s="321"/>
+      <c r="E17" s="321"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
@@ -16388,7 +16389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -16409,12 +16410,12 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
-      <c r="B2" s="317" t="s">
+      <c r="B2" s="323" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="318"/>
-      <c r="D2" s="318"/>
-      <c r="E2" s="319"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="325"/>
       <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -16639,13 +16640,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
-      <c r="B2" s="320" t="s">
+      <c r="B2" s="326" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="322"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="328"/>
       <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16963,12 +16964,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="312" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="309"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="314"/>
     </row>
     <row r="3" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="189" t="s">
@@ -17216,7 +17217,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17236,13 +17237,13 @@
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="303" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="300"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="305"/>
       <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -17528,8 +17529,8 @@
   </sheetPr>
   <dimension ref="B4:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17561,14 +17562,14 @@
     </row>
     <row r="5" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B5" s="35"/>
-      <c r="C5" s="323" t="s">
+      <c r="C5" s="329" t="s">
         <v>266</v>
       </c>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="325"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="331"/>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
@@ -17595,10 +17596,10 @@
         <v>268</v>
       </c>
       <c r="I6" s="35"/>
-      <c r="J6" s="326" t="s">
+      <c r="J6" s="332" t="s">
         <v>269</v>
       </c>
-      <c r="K6" s="327"/>
+      <c r="K6" s="333"/>
       <c r="L6" s="193"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -17769,10 +17770,10 @@
         <v>58</v>
       </c>
       <c r="I12" s="35"/>
-      <c r="J12" s="326" t="s">
+      <c r="J12" s="332" t="s">
         <v>271</v>
       </c>
-      <c r="K12" s="327"/>
+      <c r="K12" s="333"/>
       <c r="L12" s="204"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -17960,7 +17961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -17986,18 +17987,18 @@
     </row>
     <row r="3" spans="2:13" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="35"/>
-      <c r="C3" s="298" t="s">
+      <c r="C3" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="300"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="305"/>
       <c r="M3" s="35"/>
     </row>
     <row r="4" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -18470,18 +18471,18 @@
     </row>
     <row r="18" spans="2:13" ht="19" x14ac:dyDescent="0.25">
       <c r="B18" s="35"/>
-      <c r="C18" s="298" t="s">
+      <c r="C18" s="303" t="s">
         <v>331</v>
       </c>
-      <c r="D18" s="299"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
-      <c r="I18" s="299"/>
-      <c r="J18" s="299"/>
-      <c r="K18" s="299"/>
-      <c r="L18" s="300"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="304"/>
+      <c r="I18" s="304"/>
+      <c r="J18" s="304"/>
+      <c r="K18" s="304"/>
+      <c r="L18" s="305"/>
       <c r="M18" s="35"/>
     </row>
     <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.2">
@@ -18992,7 +18993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y38"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
@@ -19016,34 +19017,34 @@
       <c r="Y1" s="35"/>
     </row>
     <row r="2" spans="2:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="303" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="299"/>
-      <c r="H2" s="300"/>
-      <c r="J2" s="298" t="s">
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="305"/>
+      <c r="J2" s="303" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="300"/>
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="304"/>
+      <c r="P2" s="305"/>
       <c r="Q2" s="35"/>
-      <c r="R2" s="298" t="s">
+      <c r="R2" s="303" t="s">
         <v>296</v>
       </c>
-      <c r="S2" s="299"/>
-      <c r="T2" s="299"/>
-      <c r="U2" s="299"/>
-      <c r="V2" s="299"/>
-      <c r="W2" s="299"/>
-      <c r="X2" s="300"/>
+      <c r="S2" s="304"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="305"/>
       <c r="Y2" s="35"/>
     </row>
     <row r="3" spans="2:25" ht="30" x14ac:dyDescent="0.2">
@@ -20766,7 +20767,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20788,15 +20789,15 @@
     </row>
     <row r="2" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
-      <c r="B2" s="328" t="s">
+      <c r="B2" s="334" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="318"/>
-      <c r="D2" s="318"/>
-      <c r="E2" s="318"/>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="319"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="325"/>
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -21281,10 +21282,10 @@
     </row>
     <row r="3" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="334" t="s">
         <v>324</v>
       </c>
-      <c r="C3" s="329"/>
+      <c r="C3" s="335"/>
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -21356,7 +21357,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21379,14 +21380,14 @@
     </row>
     <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="303" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="300"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="305"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -21429,7 +21430,7 @@
         <f>12/15</f>
         <v>0.8</v>
       </c>
-      <c r="G4" s="331" t="s">
+      <c r="G4" s="299" t="s">
         <v>286</v>
       </c>
       <c r="H4" s="35"/>
@@ -21452,7 +21453,7 @@
         <f>12/15</f>
         <v>0.8</v>
       </c>
-      <c r="G5" s="331" t="s">
+      <c r="G5" s="299" t="s">
         <v>286</v>
       </c>
       <c r="H5" s="35"/>
@@ -21475,7 +21476,7 @@
         <f>12/14</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G6" s="331" t="s">
+      <c r="G6" s="299" t="s">
         <v>75</v>
       </c>
       <c r="H6" s="35"/>
@@ -21498,7 +21499,7 @@
         <f>12/14</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G7" s="331" t="s">
+      <c r="G7" s="299" t="s">
         <v>286</v>
       </c>
       <c r="H7" s="35"/>
@@ -21514,14 +21515,14 @@
       <c r="D8" s="73">
         <v>2012</v>
       </c>
-      <c r="E8" s="332" t="s">
+      <c r="E8" s="300" t="s">
         <v>328</v>
       </c>
       <c r="F8" s="293">
         <f>12/14</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G8" s="333" t="s">
+      <c r="G8" s="301" t="s">
         <v>286</v>
       </c>
       <c r="H8" s="35"/>
@@ -21531,25 +21532,25 @@
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="334"/>
+      <c r="E9" s="302"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E10" s="330"/>
+      <c r="E10" s="298"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E11" s="330"/>
+      <c r="E11" s="298"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E12" s="330"/>
+      <c r="E12" s="298"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E13" s="330"/>
+      <c r="E13" s="298"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E14" s="330"/>
+      <c r="E14" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21567,7 +21568,7 @@
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24042,6 +24043,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E145"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24072,14 +24074,14 @@
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="301" t="s">
+      <c r="B2" s="306" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="303"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="308"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -27038,7 +27040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -27071,23 +27073,23 @@
     </row>
     <row r="2" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="303" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="300"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="305"/>
       <c r="H2" s="35"/>
       <c r="J2" s="35"/>
-      <c r="K2" s="298" t="s">
+      <c r="K2" s="303" t="s">
         <v>301</v>
       </c>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="300"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="305"/>
       <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
@@ -28207,7 +28209,7 @@
   <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30225,7 +30227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q148"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -30257,24 +30259,24 @@
     </row>
     <row r="2" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="309" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305"/>
-      <c r="H2" s="306"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="311"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
-      <c r="K2" s="304" t="s">
+      <c r="K2" s="309" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="305"/>
-      <c r="M2" s="305"/>
-      <c r="N2" s="305"/>
-      <c r="O2" s="306"/>
+      <c r="L2" s="310"/>
+      <c r="M2" s="310"/>
+      <c r="N2" s="310"/>
+      <c r="O2" s="311"/>
       <c r="P2" s="112"/>
       <c r="Q2" s="45"/>
     </row>
@@ -33896,14 +33898,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:N319"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F228" sqref="F228"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33957,7 +33959,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="60">
         <v>2021</v>
       </c>
@@ -33977,11 +33979,11 @@
         <v>118.82</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G67" si="0">SUM(E2:F2)</f>
+        <f t="shared" ref="G2:G33" si="0">SUM(E2:F2)</f>
         <v>273.77999999999997</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H67" si="1">E2-F2</f>
+        <f t="shared" ref="H2:H65" si="1">E2-F2</f>
         <v>36.140000000000015</v>
       </c>
       <c r="I2" s="60" t="s">
@@ -33991,7 +33993,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="str">
-        <f>_xlfn.CONCAT(_xlfn.CONCAT(I2,"|"), J2)</f>
+        <f t="shared" ref="K2:K65" si="2">_xlfn.CONCAT(_xlfn.CONCAT(I2,"|"), J2)</f>
         <v>Brenton|Mike</v>
       </c>
       <c r="L2">
@@ -34038,7 +34040,7 @@
         <v>36</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="2">_xlfn.CONCAT(_xlfn.CONCAT(I3,"|"), J3)</f>
+        <f t="shared" si="2"/>
         <v>Schulwolf|Todd</v>
       </c>
       <c r="L3">
@@ -34051,7 +34053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="60">
         <v>2021</v>
       </c>
@@ -34098,7 +34100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="60">
         <v>2021</v>
       </c>
@@ -34145,7 +34147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <v>2021</v>
       </c>
@@ -34192,7 +34194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="60">
         <v>2021</v>
       </c>
@@ -34239,7 +34241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="60">
         <v>2021</v>
       </c>
@@ -34286,7 +34288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="60">
         <v>2021</v>
       </c>
@@ -34380,7 +34382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="60">
         <v>2021</v>
       </c>
@@ -34427,7 +34429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="60">
         <v>2021</v>
       </c>
@@ -34474,7 +34476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="60">
         <v>2021</v>
       </c>
@@ -34521,7 +34523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="60">
         <v>2021</v>
       </c>
@@ -34568,7 +34570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="60">
         <v>2021</v>
       </c>
@@ -34662,7 +34664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="60">
         <v>2021</v>
       </c>
@@ -34709,7 +34711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="60">
         <v>2021</v>
       </c>
@@ -34756,7 +34758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="60">
         <v>2021</v>
       </c>
@@ -34803,7 +34805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="60">
         <v>2021</v>
       </c>
@@ -34850,7 +34852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="60">
         <v>2021</v>
       </c>
@@ -34897,7 +34899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="60">
         <v>2021</v>
       </c>
@@ -34991,7 +34993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="60">
         <v>2021</v>
       </c>
@@ -35038,7 +35040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="60">
         <v>2021</v>
       </c>
@@ -35085,7 +35087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="60">
         <v>2021</v>
       </c>
@@ -35132,7 +35134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="60">
         <v>2021</v>
       </c>
@@ -35179,7 +35181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="60">
         <v>2021</v>
       </c>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="60">
         <v>2021</v>
       </c>
@@ -35320,7 +35322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="60">
         <v>2021</v>
       </c>
@@ -35367,7 +35369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="60">
         <v>2021</v>
       </c>
@@ -35414,7 +35416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="60">
         <v>2021</v>
       </c>
@@ -35461,7 +35463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="60">
         <v>2021</v>
       </c>
@@ -35481,7 +35483,7 @@
         <v>100.1</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G34:G65" si="3">SUM(E34:F34)</f>
         <v>214.3</v>
       </c>
       <c r="H34">
@@ -35508,7 +35510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="60">
         <v>2021</v>
       </c>
@@ -35528,7 +35530,7 @@
         <v>146.38</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>295.32</v>
       </c>
       <c r="H35">
@@ -35575,7 +35577,7 @@
         <v>115.82</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>243.07999999999998</v>
       </c>
       <c r="H36">
@@ -35602,7 +35604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="60">
         <v>2021</v>
       </c>
@@ -35622,7 +35624,7 @@
         <v>105.08</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>232.62</v>
       </c>
       <c r="H37">
@@ -35649,7 +35651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="60">
         <v>2021</v>
       </c>
@@ -35669,7 +35671,7 @@
         <v>114.14</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>266.24</v>
       </c>
       <c r="H38">
@@ -35696,7 +35698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="60">
         <v>2021</v>
       </c>
@@ -35716,7 +35718,7 @@
         <v>109.08</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>254.21999999999997</v>
       </c>
       <c r="H39">
@@ -35743,7 +35745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="60">
         <v>2021</v>
       </c>
@@ -35763,7 +35765,7 @@
         <v>93.28</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>215.54000000000002</v>
       </c>
       <c r="H40">
@@ -35790,7 +35792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="60">
         <v>2021</v>
       </c>
@@ -35810,7 +35812,7 @@
         <v>93.66</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>198.8</v>
       </c>
       <c r="H41">
@@ -35857,7 +35859,7 @@
         <v>62.48</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>192.01999999999998</v>
       </c>
       <c r="H42">
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="60">
         <v>2021</v>
       </c>
@@ -35904,7 +35906,7 @@
         <v>99</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>219.24</v>
       </c>
       <c r="H43">
@@ -35931,7 +35933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="60">
         <v>2021</v>
       </c>
@@ -35951,7 +35953,7 @@
         <v>104.36</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>215.84</v>
       </c>
       <c r="H44">
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="60">
         <v>2021</v>
       </c>
@@ -35998,7 +36000,7 @@
         <v>94.48</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>189.38</v>
       </c>
       <c r="H45">
@@ -36025,7 +36027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="60">
         <v>2021</v>
       </c>
@@ -36045,7 +36047,7 @@
         <v>106.02</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>233.18</v>
       </c>
       <c r="H46">
@@ -36072,7 +36074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="60">
         <v>2021</v>
       </c>
@@ -36092,7 +36094,7 @@
         <v>88.6</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>182.66</v>
       </c>
       <c r="H47">
@@ -36119,7 +36121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="60">
         <v>2021</v>
       </c>
@@ -36139,7 +36141,7 @@
         <v>88.32</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>202.22</v>
       </c>
       <c r="H48">
@@ -36186,7 +36188,7 @@
         <v>83.5</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>218.66</v>
       </c>
       <c r="H49">
@@ -36213,7 +36215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="60">
         <v>2021</v>
       </c>
@@ -36233,7 +36235,7 @@
         <v>88.5</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>211.74</v>
       </c>
       <c r="H50">
@@ -36260,7 +36262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="60">
         <v>2021</v>
       </c>
@@ -36280,7 +36282,7 @@
         <v>89.42</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>237.8</v>
       </c>
       <c r="H51">
@@ -36307,7 +36309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="60">
         <v>2021</v>
       </c>
@@ -36327,7 +36329,7 @@
         <v>83.18</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>171.06</v>
       </c>
       <c r="H52">
@@ -36354,7 +36356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="60">
         <v>2021</v>
       </c>
@@ -36374,7 +36376,7 @@
         <v>66.56</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>199.5</v>
       </c>
       <c r="H53">
@@ -36401,7 +36403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="60">
         <v>2021</v>
       </c>
@@ -36421,7 +36423,7 @@
         <v>77.94</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>183.04</v>
       </c>
       <c r="H54">
@@ -36468,7 +36470,7 @@
         <v>97.86</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>200.3</v>
       </c>
       <c r="H55">
@@ -36495,7 +36497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="60">
         <v>2021</v>
       </c>
@@ -36515,7 +36517,7 @@
         <v>100.52</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>212.45999999999998</v>
       </c>
       <c r="H56">
@@ -36562,7 +36564,7 @@
         <v>98.84</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>241.48</v>
       </c>
       <c r="H57">
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="60">
         <v>2021</v>
       </c>
@@ -36609,7 +36611,7 @@
         <v>100.08</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>213.6</v>
       </c>
       <c r="H58">
@@ -36636,7 +36638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="60">
         <v>2021</v>
       </c>
@@ -36656,7 +36658,7 @@
         <v>67.58</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>168.89999999999998</v>
       </c>
       <c r="H59">
@@ -36683,7 +36685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="60">
         <v>2021</v>
       </c>
@@ -36703,7 +36705,7 @@
         <v>115.46</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>239.57999999999998</v>
       </c>
       <c r="H60">
@@ -36730,7 +36732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="60">
         <v>2021</v>
       </c>
@@ -36750,7 +36752,7 @@
         <v>86.44</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>196.98000000000002</v>
       </c>
       <c r="H61">
@@ -36797,7 +36799,7 @@
         <v>100.46</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>227.74</v>
       </c>
       <c r="H62">
@@ -36824,7 +36826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="60">
         <v>2021</v>
       </c>
@@ -36844,7 +36846,7 @@
         <v>96.3</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>219.84</v>
       </c>
       <c r="H63">
@@ -36871,7 +36873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="60">
         <v>2021</v>
       </c>
@@ -36891,7 +36893,7 @@
         <v>92.1</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>197.12</v>
       </c>
       <c r="H64">
@@ -36918,7 +36920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="60">
         <v>2021</v>
       </c>
@@ -36938,7 +36940,7 @@
         <v>134.18</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>275.22000000000003</v>
       </c>
       <c r="H65">
@@ -36965,7 +36967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="60">
         <v>2021</v>
       </c>
@@ -36985,11 +36987,11 @@
         <v>101.48</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G66:G97" si="4">SUM(E66:F66)</f>
         <v>212.7</v>
       </c>
       <c r="H66">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H66:H129" si="5">E66-F66</f>
         <v>9.7399999999999949</v>
       </c>
       <c r="I66" s="60" t="s">
@@ -36999,7 +37001,7 @@
         <v>38</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K66:K129" si="6">_xlfn.CONCAT(_xlfn.CONCAT(I66,"|"), J66)</f>
         <v>Cam|Eli</v>
       </c>
       <c r="L66">
@@ -37012,7 +37014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="60">
         <v>2021</v>
       </c>
@@ -37032,11 +37034,11 @@
         <v>83.8</v>
       </c>
       <c r="G67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>208.78</v>
       </c>
       <c r="H67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>41.180000000000007</v>
       </c>
       <c r="I67" s="60" t="s">
@@ -37046,7 +37048,7 @@
         <v>28</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K130" si="3">_xlfn.CONCAT(_xlfn.CONCAT(I67,"|"), J67)</f>
+        <f t="shared" si="6"/>
         <v>Will|Jay</v>
       </c>
       <c r="L67">
@@ -37059,7 +37061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="60">
         <v>2021</v>
       </c>
@@ -37079,11 +37081,11 @@
         <v>110.2</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G95" si="4">SUM(E68:F68)</f>
+        <f t="shared" si="4"/>
         <v>235.18</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H95" si="5">E68-F68</f>
+        <f t="shared" si="5"/>
         <v>14.780000000000001</v>
       </c>
       <c r="I68" s="60" t="s">
@@ -37093,7 +37095,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Brenton|Mike</v>
       </c>
       <c r="L68">
@@ -37140,7 +37142,7 @@
         <v>32</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Todd|Schulwolf</v>
       </c>
       <c r="L69">
@@ -37153,7 +37155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="60">
         <v>2021</v>
       </c>
@@ -37187,7 +37189,7 @@
         <v>72</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Jasjaap|Burnett</v>
       </c>
       <c r="L70">
@@ -37200,7 +37202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="60">
         <v>2021</v>
       </c>
@@ -37234,7 +37236,7 @@
         <v>38</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Tommy|Eli</v>
       </c>
       <c r="L71">
@@ -37247,7 +37249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="60">
         <v>2021</v>
       </c>
@@ -37281,7 +37283,7 @@
         <v>28</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Cam|Jay</v>
       </c>
       <c r="L72">
@@ -37294,7 +37296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="60">
         <v>2021</v>
       </c>
@@ -37328,7 +37330,7 @@
         <v>110</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Will|Brand/Kevin</v>
       </c>
       <c r="L73">
@@ -37341,7 +37343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="60">
         <v>2021</v>
       </c>
@@ -37375,7 +37377,7 @@
         <v>110</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Brenton|Brand/Kevin</v>
       </c>
       <c r="L74">
@@ -37388,7 +37390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="60">
         <v>2021</v>
       </c>
@@ -37422,7 +37424,7 @@
         <v>32</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Mike|Schulwolf</v>
       </c>
       <c r="L75">
@@ -37469,7 +37471,7 @@
         <v>36</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Jasjaap|Todd</v>
       </c>
       <c r="L76">
@@ -37482,7 +37484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="60">
         <v>2021</v>
       </c>
@@ -37516,7 +37518,7 @@
         <v>38</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Burnett|Eli</v>
       </c>
       <c r="L77">
@@ -37529,7 +37531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="60">
         <v>2021</v>
       </c>
@@ -37563,7 +37565,7 @@
         <v>26</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Jay|Tommy</v>
       </c>
       <c r="L78">
@@ -37576,7 +37578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="60">
         <v>2021</v>
       </c>
@@ -37610,7 +37612,7 @@
         <v>30</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Cam|Will</v>
       </c>
       <c r="L79">
@@ -37623,7 +37625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="60">
         <v>2021</v>
       </c>
@@ -37657,7 +37659,7 @@
         <v>34</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Schulwolf|Brenton</v>
       </c>
       <c r="L80">
@@ -37670,7 +37672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="60">
         <v>2021</v>
       </c>
@@ -37704,7 +37706,7 @@
         <v>46</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Jasjaap|Mike</v>
       </c>
       <c r="L81">
@@ -37751,7 +37753,7 @@
         <v>38</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Todd|Eli</v>
       </c>
       <c r="L82">
@@ -37764,7 +37766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="60">
         <v>2021</v>
       </c>
@@ -37798,7 +37800,7 @@
         <v>72</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Jay|Burnett</v>
       </c>
       <c r="L83">
@@ -37811,7 +37813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="60">
         <v>2021</v>
       </c>
@@ -37845,7 +37847,7 @@
         <v>30</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Tommy|Will</v>
       </c>
       <c r="L84">
@@ -37858,7 +37860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="60">
         <v>2021</v>
       </c>
@@ -37892,7 +37894,7 @@
         <v>110</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Cam|Brand/Kevin</v>
       </c>
       <c r="L85">
@@ -37905,7 +37907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="60">
         <v>2021</v>
       </c>
@@ -37939,7 +37941,7 @@
         <v>34</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Jasjaap|Brenton</v>
       </c>
       <c r="L86">
@@ -37952,7 +37954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="60">
         <v>2021</v>
       </c>
@@ -37986,7 +37988,7 @@
         <v>38</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Mike|Eli</v>
       </c>
       <c r="L87">
@@ -37999,7 +38001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="60">
         <v>2021</v>
       </c>
@@ -38033,7 +38035,7 @@
         <v>110</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Schulwolf|Brand/Kevin</v>
       </c>
       <c r="L88">
@@ -38080,7 +38082,7 @@
         <v>28</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Todd|Jay</v>
       </c>
       <c r="L89">
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="60">
         <v>2021</v>
       </c>
@@ -38127,7 +38129,7 @@
         <v>72</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Will|Burnett</v>
       </c>
       <c r="L90">
@@ -38140,7 +38142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="60">
         <v>2021</v>
       </c>
@@ -38174,7 +38176,7 @@
         <v>26</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Cam|Tommy</v>
       </c>
       <c r="L91">
@@ -38187,7 +38189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="60">
         <v>2021</v>
       </c>
@@ -38221,7 +38223,7 @@
         <v>32</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Cam|Schulwolf</v>
       </c>
       <c r="L92">
@@ -38234,7 +38236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="60">
         <v>2021</v>
       </c>
@@ -38268,7 +38270,7 @@
         <v>30</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Jasjaap|Will</v>
       </c>
       <c r="L93">
@@ -38281,7 +38283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="60">
         <v>2021</v>
       </c>
@@ -38315,7 +38317,7 @@
         <v>79</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Cam|Jasjaap</v>
       </c>
       <c r="L94">
@@ -38328,7 +38330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="60">
         <v>2021</v>
       </c>
@@ -38362,7 +38364,7 @@
         <v>30</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Schulwolf|Will</v>
       </c>
       <c r="L95">
@@ -38375,7 +38377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2022</v>
       </c>
@@ -38395,11 +38397,11 @@
         <v>77.8</v>
       </c>
       <c r="G96">
-        <f t="shared" ref="G96:G127" si="6">SUM(E96:F96)</f>
+        <f t="shared" si="4"/>
         <v>215.32</v>
       </c>
       <c r="H96">
-        <f t="shared" ref="H96:H159" si="7">E96-F96</f>
+        <f t="shared" si="5"/>
         <v>59.720000000000013</v>
       </c>
       <c r="I96" t="s">
@@ -38409,7 +38411,7 @@
         <v>42</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Will|Cam</v>
       </c>
       <c r="L96">
@@ -38422,7 +38424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2022</v>
       </c>
@@ -38442,11 +38444,11 @@
         <v>94.62</v>
       </c>
       <c r="G97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>217.12</v>
       </c>
       <c r="H97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>27.879999999999995</v>
       </c>
       <c r="I97" t="s">
@@ -38456,7 +38458,7 @@
         <v>34</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Eli|Brenton</v>
       </c>
       <c r="L97">
@@ -38469,7 +38471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2022</v>
       </c>
@@ -38489,11 +38491,11 @@
         <v>102.48</v>
       </c>
       <c r="G98">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G98:G129" si="7">SUM(E98:F98)</f>
         <v>220.38</v>
       </c>
       <c r="H98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>15.420000000000002</v>
       </c>
       <c r="I98" t="s">
@@ -38503,7 +38505,7 @@
         <v>26</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Jay/Brand|Tommy</v>
       </c>
       <c r="L98">
@@ -38516,7 +38518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2022</v>
       </c>
@@ -38536,11 +38538,11 @@
         <v>80.680000000000007</v>
       </c>
       <c r="G99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>223.9</v>
       </c>
       <c r="H99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>62.539999999999992</v>
       </c>
       <c r="I99" t="s">
@@ -38550,7 +38552,7 @@
         <v>72</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Mike|Burnett</v>
       </c>
       <c r="L99">
@@ -38563,7 +38565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2022</v>
       </c>
@@ -38583,11 +38585,11 @@
         <v>110.92</v>
       </c>
       <c r="G100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>225.07999999999998</v>
       </c>
       <c r="H100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.2399999999999949</v>
       </c>
       <c r="I100" t="s">
@@ -38597,7 +38599,7 @@
         <v>32</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Jasjaap|Schulwolf</v>
       </c>
       <c r="L100">
@@ -38630,11 +38632,11 @@
         <v>117.8</v>
       </c>
       <c r="G101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>244.68</v>
       </c>
       <c r="H101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9.0799999999999983</v>
       </c>
       <c r="I101" t="s">
@@ -38644,7 +38646,7 @@
         <v>24</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Todd|Kevin</v>
       </c>
       <c r="L101">
@@ -38657,7 +38659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2022</v>
       </c>
@@ -38677,11 +38679,11 @@
         <v>65.099999999999994</v>
       </c>
       <c r="G102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>171.95999999999998</v>
       </c>
       <c r="H102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>41.760000000000005</v>
       </c>
       <c r="I102" t="s">
@@ -38691,7 +38693,7 @@
         <v>72</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Cam|Burnett</v>
       </c>
       <c r="L102">
@@ -38724,11 +38726,11 @@
         <v>71.739999999999995</v>
       </c>
       <c r="G103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>207.62</v>
       </c>
       <c r="H103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>64.14</v>
       </c>
       <c r="I103" t="s">
@@ -38738,7 +38740,7 @@
         <v>36</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Schulwolf|Todd</v>
       </c>
       <c r="L103">
@@ -38751,7 +38753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2022</v>
       </c>
@@ -38771,11 +38773,11 @@
         <v>101.18</v>
       </c>
       <c r="G104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>210.04000000000002</v>
       </c>
       <c r="H104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.6799999999999926</v>
       </c>
       <c r="I104" t="s">
@@ -38785,7 +38787,7 @@
         <v>95</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Brenton|Jay/Brand</v>
       </c>
       <c r="L104">
@@ -38798,7 +38800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2022</v>
       </c>
@@ -38818,11 +38820,11 @@
         <v>108.38</v>
       </c>
       <c r="G105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>220.48</v>
       </c>
       <c r="H105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.7199999999999989</v>
       </c>
       <c r="I105" t="s">
@@ -38832,7 +38834,7 @@
         <v>26</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Kevin|Tommy</v>
       </c>
       <c r="L105">
@@ -38845,7 +38847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2022</v>
       </c>
@@ -38865,11 +38867,11 @@
         <v>132.86000000000001</v>
       </c>
       <c r="G106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>270.08000000000004</v>
       </c>
       <c r="H106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.3599999999999852</v>
       </c>
       <c r="I106" t="s">
@@ -38879,7 +38881,7 @@
         <v>79</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Will|Jasjaap</v>
       </c>
       <c r="L106">
@@ -38892,7 +38894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2022</v>
       </c>
@@ -38912,11 +38914,11 @@
         <v>121.72</v>
       </c>
       <c r="G107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>286.48</v>
       </c>
       <c r="H107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>43.039999999999992</v>
       </c>
       <c r="I107" t="s">
@@ -38926,7 +38928,7 @@
         <v>46</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Eli|Mike</v>
       </c>
       <c r="L107">
@@ -38939,7 +38941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2022</v>
       </c>
@@ -38959,11 +38961,11 @@
         <v>74.459999999999994</v>
       </c>
       <c r="G108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>188.39999999999998</v>
       </c>
       <c r="H108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>39.480000000000004</v>
       </c>
       <c r="I108" t="s">
@@ -38973,7 +38975,7 @@
         <v>38</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Cam|Eli</v>
       </c>
       <c r="L108">
@@ -38986,7 +38988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2022</v>
       </c>
@@ -39006,11 +39008,11 @@
         <v>89.74</v>
       </c>
       <c r="G109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>197.56</v>
       </c>
       <c r="H109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>18.079999999999998</v>
       </c>
       <c r="I109" t="s">
@@ -39020,7 +39022,7 @@
         <v>72</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Will|Burnett</v>
       </c>
       <c r="L109">
@@ -39033,7 +39035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2022</v>
       </c>
@@ -39053,11 +39055,11 @@
         <v>83.38</v>
       </c>
       <c r="G110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>204.48</v>
       </c>
       <c r="H110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37.72</v>
       </c>
       <c r="I110" t="s">
@@ -39067,7 +39069,7 @@
         <v>24</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Brenton|Kevin</v>
       </c>
       <c r="L110">
@@ -39080,7 +39082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2022</v>
       </c>
@@ -39100,11 +39102,11 @@
         <v>97.76</v>
       </c>
       <c r="G111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>211.06</v>
       </c>
       <c r="H111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>15.539999999999992</v>
       </c>
       <c r="I111" t="s">
@@ -39114,7 +39116,7 @@
         <v>32</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Tommy|Schulwolf</v>
       </c>
       <c r="L111">
@@ -39127,7 +39129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2022</v>
       </c>
@@ -39147,11 +39149,11 @@
         <v>104.4</v>
       </c>
       <c r="G112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>212.96</v>
       </c>
       <c r="H112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.1599999999999966</v>
       </c>
       <c r="I112" t="s">
@@ -39161,7 +39163,7 @@
         <v>46</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Jay/Brand|Mike</v>
       </c>
       <c r="L112">
@@ -39194,11 +39196,11 @@
         <v>105.4</v>
       </c>
       <c r="G113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>226.44</v>
       </c>
       <c r="H113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>15.64</v>
       </c>
       <c r="I113" t="s">
@@ -39208,7 +39210,7 @@
         <v>36</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Jasjaap|Todd</v>
       </c>
       <c r="L113">
@@ -39221,7 +39223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2022</v>
       </c>
@@ -39241,11 +39243,11 @@
         <v>84.26</v>
       </c>
       <c r="G114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>185.2</v>
       </c>
       <c r="H114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>16.679999999999993</v>
       </c>
       <c r="I114" t="s">
@@ -39255,7 +39257,7 @@
         <v>95</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Cam|Jay/Brand</v>
       </c>
       <c r="L114">
@@ -39268,7 +39270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2022</v>
       </c>
@@ -39288,11 +39290,11 @@
         <v>64.599999999999994</v>
       </c>
       <c r="G115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>194.7</v>
       </c>
       <c r="H115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="I115" t="s">
@@ -39302,7 +39304,7 @@
         <v>72</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Jasjaap|Burnett</v>
       </c>
       <c r="L115">
@@ -39315,7 +39317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2022</v>
       </c>
@@ -39335,11 +39337,11 @@
         <v>84.86</v>
       </c>
       <c r="G116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>221.01999999999998</v>
       </c>
       <c r="H116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>51.3</v>
       </c>
       <c r="I116" t="s">
@@ -39349,7 +39351,7 @@
         <v>46</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Kevin|Mike</v>
       </c>
       <c r="L116">
@@ -39362,7 +39364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2022</v>
       </c>
@@ -39382,11 +39384,11 @@
         <v>123.98</v>
       </c>
       <c r="G117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>248.66000000000003</v>
       </c>
       <c r="H117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.70000000000000284</v>
       </c>
       <c r="I117" t="s">
@@ -39396,7 +39398,7 @@
         <v>34</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Schulwolf|Brenton</v>
       </c>
       <c r="L117">
@@ -39429,11 +39431,11 @@
         <v>102.14</v>
       </c>
       <c r="G118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>271.16000000000003</v>
       </c>
       <c r="H118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66.88000000000001</v>
       </c>
       <c r="I118" t="s">
@@ -39443,7 +39445,7 @@
         <v>36</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Tommy|Todd</v>
       </c>
       <c r="L118">
@@ -39456,7 +39458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2022</v>
       </c>
@@ -39476,11 +39478,11 @@
         <v>132.66</v>
       </c>
       <c r="G119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>278.24</v>
       </c>
       <c r="H119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.920000000000016</v>
       </c>
       <c r="I119" t="s">
@@ -39490,7 +39492,7 @@
         <v>30</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Eli|Will</v>
       </c>
       <c r="L119">
@@ -39503,7 +39505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2022</v>
       </c>
@@ -39523,11 +39525,11 @@
         <v>87.06</v>
       </c>
       <c r="G120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>189.2</v>
       </c>
       <c r="H120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>15.079999999999998</v>
       </c>
       <c r="I120" t="s">
@@ -39537,7 +39539,7 @@
         <v>38</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Burnett|Eli</v>
       </c>
       <c r="L120">
@@ -39550,7 +39552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2022</v>
       </c>
@@ -39570,11 +39572,11 @@
         <v>73.86</v>
       </c>
       <c r="G121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>200.66</v>
       </c>
       <c r="H121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>52.94</v>
       </c>
       <c r="I121" t="s">
@@ -39584,7 +39586,7 @@
         <v>46</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Schulwolf|Mike</v>
       </c>
       <c r="L121">
@@ -39597,7 +39599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2022</v>
       </c>
@@ -39617,11 +39619,11 @@
         <v>105.64</v>
       </c>
       <c r="G122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>222.2</v>
       </c>
       <c r="H122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>10.920000000000002</v>
       </c>
       <c r="I122" t="s">
@@ -39631,7 +39633,7 @@
         <v>95</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Will|Jay/Brand</v>
       </c>
       <c r="L122">
@@ -39644,7 +39646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2022</v>
       </c>
@@ -39664,11 +39666,11 @@
         <v>81.28</v>
       </c>
       <c r="G123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>231.26</v>
       </c>
       <c r="H123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>68.699999999999989</v>
       </c>
       <c r="I123" t="s">
@@ -39678,7 +39680,7 @@
         <v>24</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Cam|Kevin</v>
       </c>
       <c r="L123">
@@ -39691,7 +39693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2022</v>
       </c>
@@ -39711,11 +39713,11 @@
         <v>108.22</v>
       </c>
       <c r="G124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>237.68</v>
       </c>
       <c r="H124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>21.240000000000009</v>
       </c>
       <c r="I124" t="s">
@@ -39725,7 +39727,7 @@
         <v>79</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Tommy|Jasjaap</v>
       </c>
       <c r="L124">
@@ -39758,11 +39760,11 @@
         <v>121.68</v>
       </c>
       <c r="G125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>256.04000000000002</v>
       </c>
       <c r="H125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.680000000000007</v>
       </c>
       <c r="I125" t="s">
@@ -39772,7 +39774,7 @@
         <v>34</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Todd|Brenton</v>
       </c>
       <c r="L125">
@@ -39805,11 +39807,11 @@
         <v>73.5</v>
       </c>
       <c r="G126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>155.04000000000002</v>
       </c>
       <c r="H126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.0400000000000063</v>
       </c>
       <c r="I126" t="s">
@@ -39819,7 +39821,7 @@
         <v>36</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Mike|Todd</v>
       </c>
       <c r="L126">
@@ -39832,7 +39834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2022</v>
       </c>
@@ -39852,11 +39854,11 @@
         <v>81</v>
       </c>
       <c r="G127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>170.72</v>
       </c>
       <c r="H127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.7199999999999989</v>
       </c>
       <c r="I127" t="s">
@@ -39866,7 +39868,7 @@
         <v>30</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Kevin|Will</v>
       </c>
       <c r="L127">
@@ -39879,7 +39881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2022</v>
       </c>
@@ -39899,11 +39901,11 @@
         <v>81.72</v>
       </c>
       <c r="G128">
-        <f t="shared" ref="G128:G189" si="8">SUM(E128:F128)</f>
+        <f t="shared" si="7"/>
         <v>200.04</v>
       </c>
       <c r="H128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>36.599999999999994</v>
       </c>
       <c r="I128" t="s">
@@ -39913,7 +39915,7 @@
         <v>79</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Eli|Jasjaap</v>
       </c>
       <c r="L128">
@@ -39926,7 +39928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2022</v>
       </c>
@@ -39946,11 +39948,11 @@
         <v>105.04</v>
       </c>
       <c r="G129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>227.02</v>
       </c>
       <c r="H129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>16.939999999999998</v>
       </c>
       <c r="I129" t="s">
@@ -39960,7 +39962,7 @@
         <v>42</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Schulwolf|Cam</v>
       </c>
       <c r="L129">
@@ -39973,7 +39975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2022</v>
       </c>
@@ -39993,11 +39995,11 @@
         <v>107.12</v>
       </c>
       <c r="G130">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G130:G161" si="8">SUM(E130:F130)</f>
         <v>228.24</v>
       </c>
       <c r="H130">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H130:H193" si="9">E130-F130</f>
         <v>14</v>
       </c>
       <c r="I130" t="s">
@@ -40007,7 +40009,7 @@
         <v>72</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K130:K193" si="10">_xlfn.CONCAT(_xlfn.CONCAT(I130,"|"), J130)</f>
         <v>Jay/Brand|Burnett</v>
       </c>
       <c r="L130">
@@ -40020,7 +40022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2022</v>
       </c>
@@ -40044,7 +40046,7 @@
         <v>264.95999999999998</v>
       </c>
       <c r="H131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35.239999999999995</v>
       </c>
       <c r="I131" t="s">
@@ -40054,7 +40056,7 @@
         <v>26</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" ref="K131:K194" si="9">_xlfn.CONCAT(_xlfn.CONCAT(I131,"|"), J131)</f>
+        <f t="shared" si="10"/>
         <v>Brenton|Tommy</v>
       </c>
       <c r="L131">
@@ -40067,7 +40069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2022</v>
       </c>
@@ -40091,7 +40093,7 @@
         <v>189.92000000000002</v>
       </c>
       <c r="H132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.679999999999993</v>
       </c>
       <c r="I132" t="s">
@@ -40101,7 +40103,7 @@
         <v>26</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mike|Tommy</v>
       </c>
       <c r="L132">
@@ -40114,7 +40116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2022</v>
       </c>
@@ -40138,7 +40140,7 @@
         <v>200.26</v>
       </c>
       <c r="H133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29.620000000000005</v>
       </c>
       <c r="I133" t="s">
@@ -40148,7 +40150,7 @@
         <v>79</v>
       </c>
       <c r="K133" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Brenton|Jasjaap</v>
       </c>
       <c r="L133">
@@ -40185,7 +40187,7 @@
         <v>225.86</v>
       </c>
       <c r="H134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33.740000000000009</v>
       </c>
       <c r="I134" t="s">
@@ -40195,7 +40197,7 @@
         <v>42</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Todd|Cam</v>
       </c>
       <c r="L134">
@@ -40208,7 +40210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2022</v>
       </c>
@@ -40232,7 +40234,7 @@
         <v>232.26</v>
       </c>
       <c r="H135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39.379999999999995</v>
       </c>
       <c r="I135" t="s">
@@ -40242,7 +40244,7 @@
         <v>72</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Kevin|Burnett</v>
       </c>
       <c r="L135">
@@ -40255,7 +40257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2022</v>
       </c>
@@ -40279,7 +40281,7 @@
         <v>235.16</v>
       </c>
       <c r="H136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48.960000000000008</v>
       </c>
       <c r="I136" t="s">
@@ -40289,7 +40291,7 @@
         <v>30</v>
       </c>
       <c r="K136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Schulwolf|Will</v>
       </c>
       <c r="L136">
@@ -40302,7 +40304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2022</v>
       </c>
@@ -40326,7 +40328,7 @@
         <v>237.14</v>
       </c>
       <c r="H137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39.100000000000009</v>
       </c>
       <c r="I137" t="s">
@@ -40336,7 +40338,7 @@
         <v>95</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Eli|Jay/Brand</v>
       </c>
       <c r="L137">
@@ -40349,7 +40351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2022</v>
       </c>
@@ -40373,7 +40375,7 @@
         <v>206.82</v>
       </c>
       <c r="H138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47.540000000000006</v>
       </c>
       <c r="I138" t="s">
@@ -40383,7 +40385,7 @@
         <v>79</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Jay/Brand|Jasjaap</v>
       </c>
       <c r="L138">
@@ -40420,7 +40422,7 @@
         <v>208.7</v>
       </c>
       <c r="H139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12.459999999999994</v>
       </c>
       <c r="I139" t="s">
@@ -40430,7 +40432,7 @@
         <v>30</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Todd|Will</v>
       </c>
       <c r="L139">
@@ -40443,7 +40445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2022</v>
       </c>
@@ -40467,7 +40469,7 @@
         <v>233.72</v>
       </c>
       <c r="H140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>84.47999999999999</v>
       </c>
       <c r="I140" t="s">
@@ -40477,7 +40479,7 @@
         <v>26</v>
       </c>
       <c r="K140" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Cam|Tommy</v>
       </c>
       <c r="L140">
@@ -40490,7 +40492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2022</v>
       </c>
@@ -40514,7 +40516,7 @@
         <v>258.42</v>
       </c>
       <c r="H141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37.339999999999989</v>
       </c>
       <c r="I141" t="s">
@@ -40524,7 +40526,7 @@
         <v>34</v>
       </c>
       <c r="K141" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mike|Brenton</v>
       </c>
       <c r="L141">
@@ -40537,7 +40539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2022</v>
       </c>
@@ -40561,7 +40563,7 @@
         <v>259.72000000000003</v>
       </c>
       <c r="H142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>69.039999999999992</v>
       </c>
       <c r="I142" t="s">
@@ -40571,7 +40573,7 @@
         <v>32</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Burnett|Schulwolf</v>
       </c>
       <c r="L142">
@@ -40584,7 +40586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2022</v>
       </c>
@@ -40608,7 +40610,7 @@
         <v>264</v>
       </c>
       <c r="H143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>43.720000000000013</v>
       </c>
       <c r="I143" t="s">
@@ -40618,7 +40620,7 @@
         <v>24</v>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Eli|Kevin</v>
       </c>
       <c r="L143">
@@ -40631,7 +40633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2022</v>
       </c>
@@ -40655,7 +40657,7 @@
         <v>160.24</v>
       </c>
       <c r="H144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.4399999999999977</v>
       </c>
       <c r="I144" t="s">
@@ -40665,7 +40667,7 @@
         <v>95</v>
       </c>
       <c r="K144" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Kevin|Jay/Brand</v>
       </c>
       <c r="L144">
@@ -40678,7 +40680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2022</v>
       </c>
@@ -40702,7 +40704,7 @@
         <v>170.54000000000002</v>
       </c>
       <c r="H145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.5400000000000063</v>
       </c>
       <c r="I145" t="s">
@@ -40712,7 +40714,7 @@
         <v>79</v>
       </c>
       <c r="K145" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mike|Jasjaap</v>
       </c>
       <c r="L145">
@@ -40725,7 +40727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2022</v>
       </c>
@@ -40749,7 +40751,7 @@
         <v>213.07999999999998</v>
       </c>
       <c r="H146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.7999999999999972</v>
       </c>
       <c r="I146" t="s">
@@ -40759,7 +40761,7 @@
         <v>42</v>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Brenton|Cam</v>
       </c>
       <c r="L146">
@@ -40796,7 +40798,7 @@
         <v>229.88</v>
       </c>
       <c r="H147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20.120000000000005</v>
       </c>
       <c r="I147" t="s">
@@ -40806,7 +40808,7 @@
         <v>72</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Todd|Burnett</v>
       </c>
       <c r="L147">
@@ -40819,7 +40821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2022</v>
       </c>
@@ -40843,7 +40845,7 @@
         <v>245.4</v>
       </c>
       <c r="H148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.599999999999994</v>
       </c>
       <c r="I148" t="s">
@@ -40853,7 +40855,7 @@
         <v>32</v>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Eli|Schulwolf</v>
       </c>
       <c r="L148">
@@ -40866,7 +40868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2022</v>
       </c>
@@ -40890,7 +40892,7 @@
         <v>279.52</v>
       </c>
       <c r="H149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>70.72</v>
       </c>
       <c r="I149" t="s">
@@ -40900,7 +40902,7 @@
         <v>26</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Will|Tommy</v>
       </c>
       <c r="L149">
@@ -40913,7 +40915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2022</v>
       </c>
@@ -40937,7 +40939,7 @@
         <v>188.72</v>
       </c>
       <c r="H150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.47999999999999</v>
       </c>
       <c r="I150" t="s">
@@ -40947,7 +40949,7 @@
         <v>95</v>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Schulwolf|Jay/Brand</v>
       </c>
       <c r="L150">
@@ -40960,7 +40962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2022</v>
       </c>
@@ -40984,7 +40986,7 @@
         <v>196.68</v>
       </c>
       <c r="H151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.5999999999999943</v>
       </c>
       <c r="I151" t="s">
@@ -40994,7 +40996,7 @@
         <v>24</v>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Jasjaap|Kevin</v>
       </c>
       <c r="L151">
@@ -41031,7 +41033,7 @@
         <v>202.2</v>
       </c>
       <c r="H152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.920000000000002</v>
       </c>
       <c r="I152" t="s">
@@ -41041,7 +41043,7 @@
         <v>38</v>
       </c>
       <c r="K152" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Todd|Eli</v>
       </c>
       <c r="L152">
@@ -41054,7 +41056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2022</v>
       </c>
@@ -41078,7 +41080,7 @@
         <v>218.66000000000003</v>
       </c>
       <c r="H153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.700000000000003</v>
       </c>
       <c r="I153" t="s">
@@ -41088,7 +41090,7 @@
         <v>30</v>
       </c>
       <c r="K153" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Brenton|Will</v>
       </c>
       <c r="L153">
@@ -41101,7 +41103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2022</v>
       </c>
@@ -41125,7 +41127,7 @@
         <v>220.24</v>
       </c>
       <c r="H154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.36</v>
       </c>
       <c r="I154" t="s">
@@ -41135,7 +41137,7 @@
         <v>42</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mike|Cam</v>
       </c>
       <c r="L154">
@@ -41148,7 +41150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2022</v>
       </c>
@@ -41172,7 +41174,7 @@
         <v>264.39999999999998</v>
       </c>
       <c r="H155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>61.999999999999986</v>
       </c>
       <c r="I155" t="s">
@@ -41182,7 +41184,7 @@
         <v>26</v>
       </c>
       <c r="K155" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Burnett|Tommy</v>
       </c>
       <c r="L155">
@@ -41219,7 +41221,7 @@
         <v>192.94</v>
       </c>
       <c r="H156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29.620000000000005</v>
       </c>
       <c r="I156" t="s">
@@ -41229,7 +41231,7 @@
         <v>95</v>
       </c>
       <c r="K156" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Todd|Jay/Brand</v>
       </c>
       <c r="L156">
@@ -41242,7 +41244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2022</v>
       </c>
@@ -41266,7 +41268,7 @@
         <v>209.32</v>
       </c>
       <c r="H157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.079999999999998</v>
       </c>
       <c r="I157" t="s">
@@ -41276,7 +41278,7 @@
         <v>38</v>
       </c>
       <c r="K157" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Tommy|Eli</v>
       </c>
       <c r="L157">
@@ -41289,7 +41291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2022</v>
       </c>
@@ -41313,7 +41315,7 @@
         <v>219.82</v>
       </c>
       <c r="H158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31.900000000000006</v>
       </c>
       <c r="I158" t="s">
@@ -41323,7 +41325,7 @@
         <v>30</v>
       </c>
       <c r="K158" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mike|Will</v>
       </c>
       <c r="L158">
@@ -41336,7 +41338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2022</v>
       </c>
@@ -41360,7 +41362,7 @@
         <v>231.76</v>
       </c>
       <c r="H159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48.079999999999984</v>
       </c>
       <c r="I159" t="s">
@@ -41370,7 +41372,7 @@
         <v>72</v>
       </c>
       <c r="K159" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Brenton|Burnett</v>
       </c>
       <c r="L159">
@@ -41383,7 +41385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2022</v>
       </c>
@@ -41407,7 +41409,7 @@
         <v>250.06</v>
       </c>
       <c r="H160">
-        <f t="shared" ref="H160:H189" si="10">E160-F160</f>
+        <f t="shared" si="9"/>
         <v>50.860000000000014</v>
       </c>
       <c r="I160" t="s">
@@ -41417,7 +41419,7 @@
         <v>32</v>
       </c>
       <c r="K160" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Kevin|Schulwolf</v>
       </c>
       <c r="L160">
@@ -41430,7 +41432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2022</v>
       </c>
@@ -41454,7 +41456,7 @@
         <v>256</v>
       </c>
       <c r="H161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.1999999999999886</v>
       </c>
       <c r="I161" t="s">
@@ -41464,7 +41466,7 @@
         <v>79</v>
       </c>
       <c r="K161" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Cam|Jasjaap</v>
       </c>
       <c r="L161">
@@ -41477,7 +41479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2022</v>
       </c>
@@ -41497,11 +41499,11 @@
         <v>100.84</v>
       </c>
       <c r="G162">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G162:G189" si="11">SUM(E162:F162)</f>
         <v>213.60000000000002</v>
       </c>
       <c r="H162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>11.920000000000002</v>
       </c>
       <c r="I162" t="s">
@@ -41511,7 +41513,7 @@
         <v>95</v>
       </c>
       <c r="K162" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Tommy|Jay/Brand</v>
       </c>
       <c r="L162">
@@ -41524,7 +41526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2022</v>
       </c>
@@ -41544,11 +41546,11 @@
         <v>97.96</v>
       </c>
       <c r="G163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>218.98</v>
       </c>
       <c r="H163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>23.060000000000002</v>
       </c>
       <c r="I163" t="s">
@@ -41558,7 +41560,7 @@
         <v>72</v>
       </c>
       <c r="K163" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mike|Burnett</v>
       </c>
       <c r="L163">
@@ -41591,11 +41593,11 @@
         <v>113.46</v>
       </c>
       <c r="G164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>229.45999999999998</v>
       </c>
       <c r="H164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.5400000000000063</v>
       </c>
       <c r="I164" t="s">
@@ -41605,7 +41607,7 @@
         <v>36</v>
       </c>
       <c r="K164" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Kevin|Todd</v>
       </c>
       <c r="L164">
@@ -41618,7 +41620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2022</v>
       </c>
@@ -41638,11 +41640,11 @@
         <v>113.3</v>
       </c>
       <c r="G165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>229.88</v>
       </c>
       <c r="H165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.2800000000000011</v>
       </c>
       <c r="I165" t="s">
@@ -41652,7 +41654,7 @@
         <v>34</v>
       </c>
       <c r="K165" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Eli|Brenton</v>
       </c>
       <c r="L165">
@@ -41665,7 +41667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2022</v>
       </c>
@@ -41685,11 +41687,11 @@
         <v>105.1</v>
       </c>
       <c r="G166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>242.35999999999999</v>
       </c>
       <c r="H166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>32.159999999999997</v>
       </c>
       <c r="I166" t="s">
@@ -41699,7 +41701,7 @@
         <v>42</v>
       </c>
       <c r="K166" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Will|Cam</v>
       </c>
       <c r="L166">
@@ -41712,7 +41714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2022</v>
       </c>
@@ -41732,11 +41734,11 @@
         <v>112.76</v>
       </c>
       <c r="G167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>290.5</v>
       </c>
       <c r="H167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>64.98</v>
       </c>
       <c r="I167" t="s">
@@ -41746,7 +41748,7 @@
         <v>79</v>
       </c>
       <c r="K167" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Schulwolf|Jasjaap</v>
       </c>
       <c r="L167">
@@ -41759,7 +41761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2022</v>
       </c>
@@ -41779,11 +41781,11 @@
         <v>73.84</v>
       </c>
       <c r="G168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>185.26</v>
       </c>
       <c r="H168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>37.58</v>
       </c>
       <c r="I168" t="s">
@@ -41793,7 +41795,7 @@
         <v>26</v>
       </c>
       <c r="K168" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Kevin|Tommy</v>
       </c>
       <c r="L168">
@@ -41806,7 +41808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2022</v>
       </c>
@@ -41826,11 +41828,11 @@
         <v>105.84</v>
       </c>
       <c r="G169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>219.88</v>
       </c>
       <c r="H169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8.2000000000000028</v>
       </c>
       <c r="I169" t="s">
@@ -41840,7 +41842,7 @@
         <v>34</v>
       </c>
       <c r="K169" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Jay/Brand|Brenton</v>
       </c>
       <c r="L169">
@@ -41873,11 +41875,11 @@
         <v>109.02</v>
       </c>
       <c r="G170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>221.6</v>
       </c>
       <c r="H170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.5600000000000023</v>
       </c>
       <c r="I170" t="s">
@@ -41887,7 +41889,7 @@
         <v>36</v>
       </c>
       <c r="K170" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Schulwolf|Todd</v>
       </c>
       <c r="L170">
@@ -41900,7 +41902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2022</v>
       </c>
@@ -41920,11 +41922,11 @@
         <v>107.28</v>
       </c>
       <c r="G171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>227.28</v>
       </c>
       <c r="H171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12.719999999999999</v>
       </c>
       <c r="I171" t="s">
@@ -41934,7 +41936,7 @@
         <v>42</v>
       </c>
       <c r="K171" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Burnett|Cam</v>
       </c>
       <c r="L171">
@@ -41947,7 +41949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2022</v>
       </c>
@@ -41967,11 +41969,11 @@
         <v>78.64</v>
       </c>
       <c r="G172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>227.38</v>
       </c>
       <c r="H172">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>70.100000000000009</v>
       </c>
       <c r="I172" t="s">
@@ -41981,7 +41983,7 @@
         <v>38</v>
       </c>
       <c r="K172" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mike|Eli</v>
       </c>
       <c r="L172">
@@ -41994,7 +41996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2022</v>
       </c>
@@ -42014,11 +42016,11 @@
         <v>101.4</v>
       </c>
       <c r="G173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>248.04</v>
       </c>
       <c r="H173">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>45.239999999999981</v>
       </c>
       <c r="I173" t="s">
@@ -42028,7 +42030,7 @@
         <v>79</v>
       </c>
       <c r="K173" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Will|Jasjaap</v>
       </c>
       <c r="L173">
@@ -42041,7 +42043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2022</v>
       </c>
@@ -42061,11 +42063,11 @@
         <v>72.78</v>
       </c>
       <c r="G174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>164.34</v>
       </c>
       <c r="H174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>18.78</v>
       </c>
       <c r="I174" t="s">
@@ -42075,7 +42077,7 @@
         <v>24</v>
       </c>
       <c r="K174" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Brenton|Kevin</v>
       </c>
       <c r="L174">
@@ -42108,11 +42110,11 @@
         <v>82.38</v>
       </c>
       <c r="G175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>194.95999999999998</v>
       </c>
       <c r="H175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.200000000000003</v>
       </c>
       <c r="I175" t="s">
@@ -42122,7 +42124,7 @@
         <v>79</v>
       </c>
       <c r="K175" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Todd|Jasjaap</v>
       </c>
       <c r="L175">
@@ -42135,7 +42137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2022</v>
       </c>
@@ -42155,11 +42157,11 @@
         <v>68.8</v>
       </c>
       <c r="G176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>198.66000000000003</v>
       </c>
       <c r="H176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>61.060000000000016</v>
       </c>
       <c r="I176" t="s">
@@ -42169,7 +42171,7 @@
         <v>72</v>
       </c>
       <c r="K176" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Will|Burnett</v>
       </c>
       <c r="L176">
@@ -42182,7 +42184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2022</v>
       </c>
@@ -42202,11 +42204,11 @@
         <v>107.26</v>
       </c>
       <c r="G177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>228.26</v>
       </c>
       <c r="H177">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>13.739999999999995</v>
       </c>
       <c r="I177" t="s">
@@ -42216,7 +42218,7 @@
         <v>32</v>
       </c>
       <c r="K177" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Tommy|Schulwolf</v>
       </c>
       <c r="L177">
@@ -42229,7 +42231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2022</v>
       </c>
@@ -42249,11 +42251,11 @@
         <v>77.599999999999994</v>
       </c>
       <c r="G178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>231</v>
       </c>
       <c r="H178">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>75.800000000000011</v>
       </c>
       <c r="I178" t="s">
@@ -42263,7 +42265,7 @@
         <v>38</v>
       </c>
       <c r="K178" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Cam|Eli</v>
       </c>
       <c r="L178">
@@ -42276,7 +42278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2022</v>
       </c>
@@ -42296,11 +42298,11 @@
         <v>114.68</v>
       </c>
       <c r="G179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>232.9</v>
       </c>
       <c r="H179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.539999999999992</v>
       </c>
       <c r="I179" t="s">
@@ -42310,7 +42312,7 @@
         <v>46</v>
       </c>
       <c r="K179" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Jay/Brand|Mike</v>
       </c>
       <c r="L179">
@@ -42323,7 +42325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2022</v>
       </c>
@@ -42343,11 +42345,11 @@
         <v>59</v>
       </c>
       <c r="G180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>175.78</v>
       </c>
       <c r="H180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>57.78</v>
       </c>
       <c r="I180" t="s">
@@ -42357,7 +42359,7 @@
         <v>30</v>
       </c>
       <c r="K180" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Eli|Will</v>
       </c>
       <c r="L180">
@@ -42370,7 +42372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2022</v>
       </c>
@@ -42390,11 +42392,11 @@
         <v>86.52</v>
       </c>
       <c r="G181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>183.7</v>
       </c>
       <c r="H181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10.660000000000011</v>
       </c>
       <c r="I181" t="s">
@@ -42404,7 +42406,7 @@
         <v>95</v>
       </c>
       <c r="K181" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Cam|Jay/Brand</v>
       </c>
       <c r="L181">
@@ -42437,11 +42439,11 @@
         <v>99.6</v>
       </c>
       <c r="G182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>220.26</v>
       </c>
       <c r="H182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>21.060000000000002</v>
       </c>
       <c r="I182" t="s">
@@ -42451,7 +42453,7 @@
         <v>26</v>
       </c>
       <c r="K182" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Todd|Tommy</v>
       </c>
       <c r="L182">
@@ -42464,7 +42466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2022</v>
       </c>
@@ -42484,11 +42486,11 @@
         <v>101.8</v>
       </c>
       <c r="G183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>228</v>
       </c>
       <c r="H183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>24.400000000000006</v>
       </c>
       <c r="I183" t="s">
@@ -42498,7 +42500,7 @@
         <v>32</v>
       </c>
       <c r="K183" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Brenton|Schulwolf</v>
       </c>
       <c r="L183">
@@ -42511,7 +42513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2022</v>
       </c>
@@ -42531,11 +42533,11 @@
         <v>113.82</v>
       </c>
       <c r="G184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>230.42</v>
       </c>
       <c r="H184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.7800000000000011</v>
       </c>
       <c r="I184" t="s">
@@ -42545,7 +42547,7 @@
         <v>79</v>
       </c>
       <c r="K184" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Burnett|Jasjaap</v>
       </c>
       <c r="L184">
@@ -42558,7 +42560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2022</v>
       </c>
@@ -42578,11 +42580,11 @@
         <v>125</v>
       </c>
       <c r="G185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>267.74</v>
       </c>
       <c r="H185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17.740000000000009</v>
       </c>
       <c r="I185" t="s">
@@ -42592,7 +42594,7 @@
         <v>46</v>
       </c>
       <c r="K185" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Kevin|Mike</v>
       </c>
       <c r="L185">
@@ -42625,11 +42627,11 @@
         <v>92.96</v>
       </c>
       <c r="G186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>252.14</v>
       </c>
       <c r="H186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>66.220000000000013</v>
       </c>
       <c r="I186" t="s">
@@ -42639,7 +42641,7 @@
         <v>34</v>
       </c>
       <c r="K186" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Todd|Brenton</v>
       </c>
       <c r="L186">
@@ -42652,7 +42654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2022</v>
       </c>
@@ -42672,11 +42674,11 @@
         <v>94.26</v>
       </c>
       <c r="G187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>199.84</v>
       </c>
       <c r="H187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>11.319999999999993</v>
       </c>
       <c r="I187" t="s">
@@ -42686,7 +42688,7 @@
         <v>38</v>
       </c>
       <c r="K187" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mike|Eli</v>
       </c>
       <c r="L187">
@@ -42699,7 +42701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2022</v>
       </c>
@@ -42719,11 +42721,11 @@
         <v>113.78</v>
       </c>
       <c r="G188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>227.74</v>
       </c>
       <c r="H188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.17999999999999261</v>
       </c>
       <c r="I188" t="s">
@@ -42733,7 +42735,7 @@
         <v>34</v>
       </c>
       <c r="K188" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Eli|Brenton</v>
       </c>
       <c r="L188">
@@ -42766,11 +42768,11 @@
         <v>89.38</v>
       </c>
       <c r="G189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>178.8</v>
       </c>
       <c r="H189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.0000000000006253E-2</v>
       </c>
       <c r="I189" t="s">
@@ -42780,7 +42782,7 @@
         <v>46</v>
       </c>
       <c r="K189" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Todd|Mike</v>
       </c>
       <c r="L189">
@@ -42793,7 +42795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2023</v>
       </c>
@@ -42813,11 +42815,11 @@
         <v>126.24</v>
       </c>
       <c r="G190">
-        <f>E190+F190</f>
+        <f t="shared" ref="G190:G221" si="12">E190+F190</f>
         <v>258.3</v>
       </c>
       <c r="H190">
-        <f>E190-F190</f>
+        <f t="shared" si="9"/>
         <v>5.8200000000000074</v>
       </c>
       <c r="I190" t="s">
@@ -42827,7 +42829,7 @@
         <v>34</v>
       </c>
       <c r="K190" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Jay|Brenton</v>
       </c>
       <c r="L190">
@@ -42840,7 +42842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2023</v>
       </c>
@@ -42860,11 +42862,11 @@
         <v>84.46</v>
       </c>
       <c r="G191">
-        <f t="shared" ref="G191:G254" si="11">E191+F191</f>
+        <f t="shared" si="12"/>
         <v>187.62</v>
       </c>
       <c r="H191">
-        <f t="shared" ref="H191:H254" si="12">E191-F191</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="I191" t="s">
@@ -42874,7 +42876,7 @@
         <v>44</v>
       </c>
       <c r="K191" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Mike|Burnett/Jasjaap</v>
       </c>
       <c r="L191">
@@ -42887,7 +42889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2023</v>
       </c>
@@ -42907,11 +42909,11 @@
         <v>93.9</v>
       </c>
       <c r="G192">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>187.92000000000002</v>
       </c>
       <c r="H192">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.11999999999999034</v>
       </c>
       <c r="I192" t="s">
@@ -42921,7 +42923,7 @@
         <v>40</v>
       </c>
       <c r="K192" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Will|Brand</v>
       </c>
       <c r="L192">
@@ -42934,7 +42936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2023</v>
       </c>
@@ -42954,11 +42956,11 @@
         <v>90.24</v>
       </c>
       <c r="G193">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>186.07999999999998</v>
       </c>
       <c r="H193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5.6000000000000085</v>
       </c>
       <c r="I193" t="s">
@@ -42968,7 +42970,7 @@
         <v>38</v>
       </c>
       <c r="K193" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Schulwolf|Eli</v>
       </c>
       <c r="L193">
@@ -43001,11 +43003,11 @@
         <v>79.08</v>
       </c>
       <c r="G194">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>202.94</v>
       </c>
       <c r="H194">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H194:H257" si="13">E194-F194</f>
         <v>44.78</v>
       </c>
       <c r="I194" t="s">
@@ -43015,7 +43017,7 @@
         <v>42</v>
       </c>
       <c r="K194" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="K194:K257" si="14">_xlfn.CONCAT(_xlfn.CONCAT(I194,"|"), J194)</f>
         <v>Todd|Cam</v>
       </c>
       <c r="L194">
@@ -43028,7 +43030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2023</v>
       </c>
@@ -43048,11 +43050,11 @@
         <v>91.8</v>
       </c>
       <c r="G195">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>207.14</v>
       </c>
       <c r="H195">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.540000000000006</v>
       </c>
       <c r="I195" t="s">
@@ -43062,7 +43064,7 @@
         <v>26</v>
       </c>
       <c r="K195" t="str">
-        <f t="shared" ref="K195:K258" si="13">_xlfn.CONCAT(_xlfn.CONCAT(I195,"|"), J195)</f>
+        <f t="shared" si="14"/>
         <v>Kevin|Tommy</v>
       </c>
       <c r="L195">
@@ -43075,7 +43077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2023</v>
       </c>
@@ -43095,11 +43097,11 @@
         <v>142.56</v>
       </c>
       <c r="G196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>289.03999999999996</v>
       </c>
       <c r="H196">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.9199999999999875</v>
       </c>
       <c r="I196" t="s">
@@ -43109,7 +43111,7 @@
         <v>34</v>
       </c>
       <c r="K196" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Tommy|Brenton</v>
       </c>
       <c r="L196">
@@ -43122,7 +43124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2023</v>
       </c>
@@ -43142,11 +43144,11 @@
         <v>109.8</v>
       </c>
       <c r="G197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>232.3</v>
       </c>
       <c r="H197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.700000000000003</v>
       </c>
       <c r="I197" t="s">
@@ -43156,7 +43158,7 @@
         <v>30</v>
       </c>
       <c r="K197" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mike|Will</v>
       </c>
       <c r="L197">
@@ -43189,11 +43191,11 @@
         <v>120.18</v>
       </c>
       <c r="G198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>253.72</v>
       </c>
       <c r="H198">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13.359999999999985</v>
       </c>
       <c r="I198" t="s">
@@ -43203,7 +43205,7 @@
         <v>36</v>
       </c>
       <c r="K198" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Schulwolf|Todd</v>
       </c>
       <c r="L198">
@@ -43216,7 +43218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2023</v>
       </c>
@@ -43236,11 +43238,11 @@
         <v>87.14</v>
       </c>
       <c r="G199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>190.88</v>
       </c>
       <c r="H199">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16.599999999999994</v>
       </c>
       <c r="I199" t="s">
@@ -43250,7 +43252,7 @@
         <v>40</v>
       </c>
       <c r="K199" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Jay|Brand</v>
       </c>
       <c r="L199">
@@ -43263,7 +43265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2023</v>
       </c>
@@ -43283,11 +43285,11 @@
         <v>92.9</v>
       </c>
       <c r="G200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>187.66000000000003</v>
       </c>
       <c r="H200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8599999999999994</v>
       </c>
       <c r="I200" t="s">
@@ -43297,7 +43299,7 @@
         <v>38</v>
       </c>
       <c r="K200" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Kevin|Eli</v>
       </c>
       <c r="L200">
@@ -43310,7 +43312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2023</v>
       </c>
@@ -43330,11 +43332,11 @@
         <v>86.58</v>
       </c>
       <c r="G201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>237.83999999999997</v>
       </c>
       <c r="H201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>64.679999999999993</v>
       </c>
       <c r="I201" t="s">
@@ -43344,7 +43346,7 @@
         <v>42</v>
       </c>
       <c r="K201" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Burnett/Jasjaap|Cam</v>
       </c>
       <c r="L201">
@@ -43357,7 +43359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2023</v>
       </c>
@@ -43377,11 +43379,11 @@
         <v>97.56</v>
       </c>
       <c r="G202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>247.64000000000001</v>
       </c>
       <c r="H202">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>52.52000000000001</v>
       </c>
       <c r="I202" t="s">
@@ -43391,7 +43393,7 @@
         <v>34</v>
       </c>
       <c r="K202" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Eli|Brenton</v>
       </c>
       <c r="L202">
@@ -43404,7 +43406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2023</v>
       </c>
@@ -43424,11 +43426,11 @@
         <v>110.9</v>
       </c>
       <c r="G203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>264.56</v>
       </c>
       <c r="H203">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.759999999999991</v>
       </c>
       <c r="I203" t="s">
@@ -43438,7 +43440,7 @@
         <v>46</v>
       </c>
       <c r="K203" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Jay|Mike</v>
       </c>
       <c r="L203">
@@ -43451,7 +43453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2023</v>
       </c>
@@ -43471,11 +43473,11 @@
         <v>123.06</v>
       </c>
       <c r="G204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>281.5</v>
       </c>
       <c r="H204">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35.379999999999995</v>
       </c>
       <c r="I204" t="s">
@@ -43485,7 +43487,7 @@
         <v>30</v>
       </c>
       <c r="K204" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Burnett/Jasjaap|Will</v>
       </c>
       <c r="L204">
@@ -43498,7 +43500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2023</v>
       </c>
@@ -43518,11 +43520,11 @@
         <v>86.56</v>
       </c>
       <c r="G205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>201.7</v>
       </c>
       <c r="H205">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28.58</v>
       </c>
       <c r="I205" t="s">
@@ -43532,7 +43534,7 @@
         <v>32</v>
       </c>
       <c r="K205" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Cam|Schulwolf</v>
       </c>
       <c r="L205">
@@ -43565,11 +43567,11 @@
         <v>88.52</v>
       </c>
       <c r="G206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>222.3</v>
       </c>
       <c r="H206">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45.260000000000005</v>
       </c>
       <c r="I206" t="s">
@@ -43579,7 +43581,7 @@
         <v>24</v>
       </c>
       <c r="K206" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Todd|Kevin</v>
       </c>
       <c r="L206">
@@ -43592,7 +43594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2023</v>
       </c>
@@ -43612,11 +43614,11 @@
         <v>102.86</v>
       </c>
       <c r="G207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>249.64</v>
       </c>
       <c r="H207">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43.92</v>
       </c>
       <c r="I207" t="s">
@@ -43626,7 +43628,7 @@
         <v>40</v>
       </c>
       <c r="K207" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Tommy|Brand</v>
       </c>
       <c r="L207">
@@ -43659,11 +43661,11 @@
         <v>114.84</v>
       </c>
       <c r="G208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>230.42000000000002</v>
       </c>
       <c r="H208">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.73999999999999488</v>
       </c>
       <c r="I208" t="s">
@@ -43673,7 +43675,7 @@
         <v>36</v>
       </c>
       <c r="K208" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Brenton|Todd</v>
       </c>
       <c r="L208">
@@ -43686,7 +43688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2023</v>
       </c>
@@ -43706,11 +43708,11 @@
         <v>114.78</v>
       </c>
       <c r="G209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>239.44</v>
       </c>
       <c r="H209">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.8799999999999955</v>
       </c>
       <c r="I209" t="s">
@@ -43720,7 +43722,7 @@
         <v>46</v>
       </c>
       <c r="K209" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Tommy|Mike</v>
       </c>
       <c r="L209">
@@ -43733,7 +43735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2023</v>
       </c>
@@ -43753,11 +43755,11 @@
         <v>118.3</v>
       </c>
       <c r="G210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>266.32</v>
       </c>
       <c r="H210">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29.720000000000013</v>
       </c>
       <c r="I210" t="s">
@@ -43767,7 +43769,7 @@
         <v>28</v>
       </c>
       <c r="K210" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Will|Jay</v>
       </c>
       <c r="L210">
@@ -43780,7 +43782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2023</v>
       </c>
@@ -43800,11 +43802,11 @@
         <v>68.36</v>
       </c>
       <c r="G211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>189.82</v>
       </c>
       <c r="H211">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>53.099999999999994</v>
       </c>
       <c r="I211" t="s">
@@ -43814,7 +43816,7 @@
         <v>44</v>
       </c>
       <c r="K211" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Schulwolf|Burnett/Jasjaap</v>
       </c>
       <c r="L211">
@@ -43827,7 +43829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2023</v>
       </c>
@@ -43847,11 +43849,11 @@
         <v>72.66</v>
       </c>
       <c r="G212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>163.89999999999998</v>
       </c>
       <c r="H212">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18.579999999999998</v>
       </c>
       <c r="I212" t="s">
@@ -43861,7 +43863,7 @@
         <v>40</v>
       </c>
       <c r="K212" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Eli|Brand</v>
       </c>
       <c r="L212">
@@ -43874,7 +43876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2023</v>
       </c>
@@ -43894,11 +43896,11 @@
         <v>125.7</v>
       </c>
       <c r="G213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>258.8</v>
       </c>
       <c r="H213">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.3999999999999915</v>
       </c>
       <c r="I213" t="s">
@@ -43908,7 +43910,7 @@
         <v>42</v>
       </c>
       <c r="K213" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Kevin|Cam</v>
       </c>
       <c r="L213">
@@ -43921,7 +43923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2023</v>
       </c>
@@ -43941,11 +43943,11 @@
         <v>95.52</v>
       </c>
       <c r="G214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>210.48</v>
       </c>
       <c r="H214">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.439999999999998</v>
       </c>
       <c r="I214" t="s">
@@ -43955,7 +43957,7 @@
         <v>34</v>
       </c>
       <c r="K214" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Cam|Brenton</v>
       </c>
       <c r="L214">
@@ -43968,7 +43970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2023</v>
       </c>
@@ -43988,11 +43990,11 @@
         <v>132.84</v>
       </c>
       <c r="G215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>268.88</v>
       </c>
       <c r="H215">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.1999999999999886</v>
       </c>
       <c r="I215" t="s">
@@ -44002,7 +44004,7 @@
         <v>46</v>
       </c>
       <c r="K215" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Eli|Mike</v>
       </c>
       <c r="L215">
@@ -44015,7 +44017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2023</v>
       </c>
@@ -44035,11 +44037,11 @@
         <v>116.52</v>
       </c>
       <c r="G216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>237.36</v>
       </c>
       <c r="H216">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.3200000000000074</v>
       </c>
       <c r="I216" t="s">
@@ -44049,7 +44051,7 @@
         <v>26</v>
       </c>
       <c r="K216" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Will|Tommy</v>
       </c>
       <c r="L216">
@@ -44062,7 +44064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2023</v>
       </c>
@@ -44082,11 +44084,11 @@
         <v>85.6</v>
       </c>
       <c r="G217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>222.76</v>
       </c>
       <c r="H217">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51.56</v>
       </c>
       <c r="I217" t="s">
@@ -44096,7 +44098,7 @@
         <v>32</v>
       </c>
       <c r="K217" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Kevin|Schulwolf</v>
       </c>
       <c r="L217">
@@ -44129,11 +44131,11 @@
         <v>73.239999999999995</v>
       </c>
       <c r="G218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>188.82</v>
       </c>
       <c r="H218">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.34</v>
       </c>
       <c r="I218" t="s">
@@ -44143,7 +44145,7 @@
         <v>36</v>
       </c>
       <c r="K218" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Brand|Todd</v>
       </c>
       <c r="L218">
@@ -44156,7 +44158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2023</v>
       </c>
@@ -44176,11 +44178,11 @@
         <v>92.16</v>
       </c>
       <c r="G219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>229.57999999999998</v>
       </c>
       <c r="H219">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45.259999999999991</v>
       </c>
       <c r="I219" t="s">
@@ -44190,7 +44192,7 @@
         <v>44</v>
       </c>
       <c r="K219" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Jay|Burnett/Jasjaap</v>
       </c>
       <c r="L219">
@@ -44203,7 +44205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2023</v>
       </c>
@@ -44223,11 +44225,11 @@
         <v>106.68</v>
       </c>
       <c r="G220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>221.62</v>
       </c>
       <c r="H220">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.2599999999999909</v>
       </c>
       <c r="I220" t="s">
@@ -44237,7 +44239,7 @@
         <v>34</v>
       </c>
       <c r="K220" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Schulwolf|Brenton</v>
       </c>
       <c r="L220">
@@ -44270,11 +44272,11 @@
         <v>96.02</v>
       </c>
       <c r="G221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>203.6</v>
       </c>
       <c r="H221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.560000000000002</v>
       </c>
       <c r="I221" t="s">
@@ -44284,7 +44286,7 @@
         <v>36</v>
       </c>
       <c r="K221" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Mike|Todd</v>
       </c>
       <c r="L221">
@@ -44297,7 +44299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2023</v>
       </c>
@@ -44317,11 +44319,11 @@
         <v>92.84</v>
       </c>
       <c r="G222">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G222:G253" si="15">E222+F222</f>
         <v>195.84</v>
       </c>
       <c r="H222">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.159999999999997</v>
       </c>
       <c r="I222" t="s">
@@ -44331,7 +44333,7 @@
         <v>38</v>
       </c>
       <c r="K222" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Will|Eli</v>
       </c>
       <c r="L222">
@@ -44344,7 +44346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2023</v>
       </c>
@@ -44364,11 +44366,11 @@
         <v>109.54</v>
       </c>
       <c r="G223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>238.24</v>
       </c>
       <c r="H223">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.159999999999982</v>
       </c>
       <c r="I223" t="s">
@@ -44378,7 +44380,7 @@
         <v>28</v>
       </c>
       <c r="K223" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Tommy|Jay</v>
       </c>
       <c r="L223">
@@ -44391,7 +44393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2023</v>
       </c>
@@ -44411,11 +44413,11 @@
         <v>81.540000000000006</v>
       </c>
       <c r="G224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>198.56</v>
       </c>
       <c r="H224">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35.47999999999999</v>
       </c>
       <c r="I224" t="s">
@@ -44425,7 +44427,7 @@
         <v>40</v>
       </c>
       <c r="K224" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Cam|Brand</v>
       </c>
       <c r="L224">
@@ -44438,7 +44440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2023</v>
       </c>
@@ -44458,11 +44460,11 @@
         <v>119.94</v>
       </c>
       <c r="G225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>243.3</v>
       </c>
       <c r="H225">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.4200000000000017</v>
       </c>
       <c r="I225" t="s">
@@ -44472,7 +44474,7 @@
         <v>44</v>
       </c>
       <c r="K225" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Kevin|Burnett/Jasjaap</v>
       </c>
       <c r="L225">
@@ -44485,7 +44487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2023</v>
       </c>
@@ -44505,11 +44507,11 @@
         <v>106.14</v>
       </c>
       <c r="G226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>220.04000000000002</v>
       </c>
       <c r="H226">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.7600000000000051</v>
       </c>
       <c r="I226" t="s">
@@ -44519,7 +44521,7 @@
         <v>34</v>
       </c>
       <c r="K226" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Kevin|Brenton</v>
       </c>
       <c r="L226">
@@ -44532,7 +44534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2023</v>
       </c>
@@ -44552,11 +44554,11 @@
         <v>74.959999999999994</v>
       </c>
       <c r="G227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>173.32</v>
       </c>
       <c r="H227">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.400000000000006</v>
       </c>
       <c r="I227" t="s">
@@ -44566,7 +44568,7 @@
         <v>46</v>
       </c>
       <c r="K227" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Cam|Mike</v>
       </c>
       <c r="L227">
@@ -44599,11 +44601,11 @@
         <v>99.66</v>
       </c>
       <c r="G228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>246.54</v>
       </c>
       <c r="H228">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>47.22</v>
       </c>
       <c r="I228" t="s">
@@ -44613,7 +44615,7 @@
         <v>30</v>
       </c>
       <c r="K228" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Todd|Will</v>
       </c>
       <c r="L228">
@@ -44626,7 +44628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2023</v>
       </c>
@@ -44646,11 +44648,11 @@
         <v>84.56</v>
       </c>
       <c r="G229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>180.2</v>
       </c>
       <c r="H229">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.079999999999998</v>
       </c>
       <c r="I229" t="s">
@@ -44660,7 +44662,7 @@
         <v>32</v>
       </c>
       <c r="K229" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Brand|Schulwolf</v>
       </c>
       <c r="L229">
@@ -44673,7 +44675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2023</v>
       </c>
@@ -44693,11 +44695,11 @@
         <v>66.16</v>
       </c>
       <c r="G230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>213.85999999999999</v>
       </c>
       <c r="H230">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>81.539999999999992</v>
       </c>
       <c r="I230" t="s">
@@ -44707,7 +44709,7 @@
         <v>38</v>
       </c>
       <c r="K230" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Jay|Eli</v>
       </c>
       <c r="L230">
@@ -44720,7 +44722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2023</v>
       </c>
@@ -44740,11 +44742,11 @@
         <v>109.32</v>
       </c>
       <c r="G231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>221.07999999999998</v>
       </c>
       <c r="H231">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.4400000000000119</v>
       </c>
       <c r="I231" t="s">
@@ -44754,7 +44756,7 @@
         <v>44</v>
       </c>
       <c r="K231" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Tommy|Burnett/Jasjaap</v>
       </c>
       <c r="L231">
@@ -44767,7 +44769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2023</v>
       </c>
@@ -44787,11 +44789,11 @@
         <v>107.8</v>
       </c>
       <c r="G232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>249.45999999999998</v>
       </c>
       <c r="H232">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33.86</v>
       </c>
       <c r="I232" t="s">
@@ -44801,7 +44803,7 @@
         <v>44</v>
       </c>
       <c r="K232" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Brenton|Burnett/Jasjaap</v>
       </c>
       <c r="L232">
@@ -44814,7 +44816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2023</v>
       </c>
@@ -44834,11 +44836,11 @@
         <v>95.62</v>
       </c>
       <c r="G233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>220.60000000000002</v>
       </c>
       <c r="H233">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29.36</v>
       </c>
       <c r="I233" t="s">
@@ -44848,7 +44850,7 @@
         <v>46</v>
       </c>
       <c r="K233" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Schulwolf|Mike</v>
       </c>
       <c r="L233">
@@ -44861,7 +44863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2023</v>
       </c>
@@ -44881,11 +44883,11 @@
         <v>68.42</v>
       </c>
       <c r="G234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>245.28000000000003</v>
       </c>
       <c r="H234">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>108.44000000000001</v>
       </c>
       <c r="I234" t="s">
@@ -44895,7 +44897,7 @@
         <v>42</v>
       </c>
       <c r="K234" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Will|Cam</v>
       </c>
       <c r="L234">
@@ -44928,11 +44930,11 @@
         <v>111.88</v>
       </c>
       <c r="G235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>225.06</v>
       </c>
       <c r="H235">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3000000000000114</v>
       </c>
       <c r="I235" t="s">
@@ -44942,7 +44944,7 @@
         <v>28</v>
       </c>
       <c r="K235" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Todd|Jay</v>
       </c>
       <c r="L235">
@@ -44955,7 +44957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2023</v>
       </c>
@@ -44975,11 +44977,11 @@
         <v>81.2</v>
       </c>
       <c r="G236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>231.76</v>
       </c>
       <c r="H236">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>69.36</v>
       </c>
       <c r="I236" t="s">
@@ -44989,7 +44991,7 @@
         <v>38</v>
       </c>
       <c r="K236" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Tommy|Eli</v>
       </c>
       <c r="L236">
@@ -45002,7 +45004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2023</v>
       </c>
@@ -45022,11 +45024,11 @@
         <v>107.36</v>
       </c>
       <c r="G237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>265.52</v>
       </c>
       <c r="H237">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50.8</v>
       </c>
       <c r="I237" t="s">
@@ -45036,7 +45038,7 @@
         <v>40</v>
       </c>
       <c r="K237" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Kevin|Brand</v>
       </c>
       <c r="L237">
@@ -45049,7 +45051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2023</v>
       </c>
@@ -45069,11 +45071,11 @@
         <v>72.22</v>
       </c>
       <c r="G238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>195.94</v>
       </c>
       <c r="H238">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51.5</v>
       </c>
       <c r="I238" t="s">
@@ -45083,7 +45085,7 @@
         <v>40</v>
       </c>
       <c r="K238" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Brenton|Brand</v>
       </c>
       <c r="L238">
@@ -45096,7 +45098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2023</v>
       </c>
@@ -45116,11 +45118,11 @@
         <v>106.64</v>
       </c>
       <c r="G239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>232.36</v>
       </c>
       <c r="H239">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.079999999999998</v>
       </c>
       <c r="I239" t="s">
@@ -45130,7 +45132,7 @@
         <v>46</v>
       </c>
       <c r="K239" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Kevin|Mike</v>
       </c>
       <c r="L239">
@@ -45143,7 +45145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2023</v>
       </c>
@@ -45163,11 +45165,11 @@
         <v>109.04</v>
       </c>
       <c r="G240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>233.8</v>
       </c>
       <c r="H240">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15.719999999999999</v>
       </c>
       <c r="I240" t="s">
@@ -45177,7 +45179,7 @@
         <v>32</v>
       </c>
       <c r="K240" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Will|Schulwolf</v>
       </c>
       <c r="L240">
@@ -45210,11 +45212,11 @@
         <v>104.68</v>
       </c>
       <c r="G241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>210.88</v>
       </c>
       <c r="H241">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.519999999999996</v>
       </c>
       <c r="I241" t="s">
@@ -45224,7 +45226,7 @@
         <v>26</v>
       </c>
       <c r="K241" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Todd|Tommy</v>
       </c>
       <c r="L241">
@@ -45237,7 +45239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2023</v>
       </c>
@@ -45257,11 +45259,11 @@
         <v>84.92</v>
       </c>
       <c r="G242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>235.82</v>
       </c>
       <c r="H242">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>65.98</v>
       </c>
       <c r="I242" t="s">
@@ -45271,7 +45273,7 @@
         <v>42</v>
       </c>
       <c r="K242" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Jay|Cam</v>
       </c>
       <c r="L242">
@@ -45284,7 +45286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2023</v>
       </c>
@@ -45304,11 +45306,11 @@
         <v>81.5</v>
       </c>
       <c r="G243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>217.6</v>
       </c>
       <c r="H243">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>54.599999999999994</v>
       </c>
       <c r="I243" t="s">
@@ -45318,7 +45320,7 @@
         <v>38</v>
       </c>
       <c r="K243" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Burnett/Jasjaap|Eli</v>
       </c>
       <c r="L243">
@@ -45331,7 +45333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2023</v>
       </c>
@@ -45351,11 +45353,11 @@
         <v>108.92</v>
       </c>
       <c r="G244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>253</v>
       </c>
       <c r="H244">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35.160000000000011</v>
       </c>
       <c r="I244" t="s">
@@ -45365,7 +45367,7 @@
         <v>46</v>
       </c>
       <c r="K244" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Brenton|Mike</v>
       </c>
       <c r="L244">
@@ -45378,7 +45380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2023</v>
       </c>
@@ -45398,11 +45400,11 @@
         <v>110.08</v>
       </c>
       <c r="G245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>254.04000000000002</v>
       </c>
       <c r="H245">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33.88000000000001</v>
       </c>
       <c r="I245" t="s">
@@ -45412,7 +45414,7 @@
         <v>24</v>
       </c>
       <c r="K245" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Will|Kevin</v>
       </c>
       <c r="L245">
@@ -45425,7 +45427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2023</v>
       </c>
@@ -45445,11 +45447,11 @@
         <v>85.1</v>
       </c>
       <c r="G246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>201.62</v>
       </c>
       <c r="H246">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31.42</v>
       </c>
       <c r="I246" t="s">
@@ -45459,7 +45461,7 @@
         <v>32</v>
       </c>
       <c r="K246" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Jay|Schulwolf</v>
       </c>
       <c r="L246">
@@ -45492,11 +45494,11 @@
         <v>96.82</v>
       </c>
       <c r="G247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>233.85999999999999</v>
       </c>
       <c r="H247">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.22</v>
       </c>
       <c r="I247" t="s">
@@ -45506,7 +45508,7 @@
         <v>36</v>
       </c>
       <c r="K247" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Eli|Todd</v>
       </c>
       <c r="L247">
@@ -45519,7 +45521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2023</v>
       </c>
@@ -45539,11 +45541,11 @@
         <v>83.28</v>
       </c>
       <c r="G248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>230.1</v>
       </c>
       <c r="H248">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>63.539999999999992</v>
       </c>
       <c r="I248" t="s">
@@ -45553,7 +45555,7 @@
         <v>42</v>
       </c>
       <c r="K248" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Tommy|Cam</v>
       </c>
       <c r="L248">
@@ -45566,7 +45568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2023</v>
       </c>
@@ -45586,11 +45588,11 @@
         <v>124.84</v>
       </c>
       <c r="G249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>251.10000000000002</v>
       </c>
       <c r="H249">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4200000000000017</v>
       </c>
       <c r="I249" t="s">
@@ -45600,7 +45602,7 @@
         <v>44</v>
       </c>
       <c r="K249" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Brand|Burnett/Jasjaap</v>
       </c>
       <c r="L249">
@@ -45613,7 +45615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2023</v>
       </c>
@@ -45633,11 +45635,11 @@
         <v>91.66</v>
       </c>
       <c r="G250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>203.95999999999998</v>
       </c>
       <c r="H250">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.64</v>
       </c>
       <c r="I250" t="s">
@@ -45647,7 +45649,7 @@
         <v>30</v>
       </c>
       <c r="K250" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Brenton|Will</v>
       </c>
       <c r="L250">
@@ -45660,7 +45662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2023</v>
       </c>
@@ -45680,11 +45682,11 @@
         <v>118.4</v>
       </c>
       <c r="G251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>257.18</v>
       </c>
       <c r="H251">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.379999999999995</v>
       </c>
       <c r="I251" t="s">
@@ -45694,7 +45696,7 @@
         <v>46</v>
       </c>
       <c r="K251" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Brand|Mike</v>
       </c>
       <c r="L251">
@@ -45707,7 +45709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2023</v>
       </c>
@@ -45727,11 +45729,11 @@
         <v>73.84</v>
       </c>
       <c r="G252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>214.9</v>
       </c>
       <c r="H252">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>67.22</v>
       </c>
       <c r="I252" t="s">
@@ -45741,7 +45743,7 @@
         <v>26</v>
       </c>
       <c r="K252" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Schulwolf|Tommy</v>
       </c>
       <c r="L252">
@@ -45774,11 +45776,11 @@
         <v>88.74</v>
       </c>
       <c r="G253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>198.6</v>
       </c>
       <c r="H253">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.120000000000005</v>
       </c>
       <c r="I253" t="s">
@@ -45788,7 +45790,7 @@
         <v>44</v>
       </c>
       <c r="K253" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Todd|Burnett/Jasjaap</v>
       </c>
       <c r="L253">
@@ -45801,7 +45803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2023</v>
       </c>
@@ -45821,11 +45823,11 @@
         <v>90.34</v>
       </c>
       <c r="G254">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G254:G285" si="16">E254+F254</f>
         <v>232.84</v>
       </c>
       <c r="H254">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>52.16</v>
       </c>
       <c r="I254" t="s">
@@ -45835,7 +45837,7 @@
         <v>28</v>
       </c>
       <c r="K254" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Kevin|Jay</v>
       </c>
       <c r="L254">
@@ -45848,7 +45850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2023</v>
       </c>
@@ -45868,11 +45870,11 @@
         <v>90.14</v>
       </c>
       <c r="G255">
-        <f t="shared" ref="G255:G319" si="14">E255+F255</f>
+        <f t="shared" si="16"/>
         <v>212.72</v>
       </c>
       <c r="H255">
-        <f t="shared" ref="H255:H319" si="15">E255-F255</f>
+        <f t="shared" si="13"/>
         <v>32.44</v>
       </c>
       <c r="I255" t="s">
@@ -45882,7 +45884,7 @@
         <v>42</v>
       </c>
       <c r="K255" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Eli|Cam</v>
       </c>
       <c r="L255">
@@ -45895,7 +45897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2023</v>
       </c>
@@ -45915,11 +45917,11 @@
         <v>95.9</v>
       </c>
       <c r="G256">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>209.4</v>
       </c>
       <c r="H256">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>17.599999999999994</v>
       </c>
       <c r="I256" t="s">
@@ -45929,7 +45931,7 @@
         <v>28</v>
       </c>
       <c r="K256" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Brenton|Jay</v>
       </c>
       <c r="L256">
@@ -45942,7 +45944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2023</v>
       </c>
@@ -45962,11 +45964,11 @@
         <v>92.98</v>
       </c>
       <c r="G257">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>227.04000000000002</v>
       </c>
       <c r="H257">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>41.08</v>
       </c>
       <c r="I257" t="s">
@@ -45976,7 +45978,7 @@
         <v>46</v>
       </c>
       <c r="K257" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Burnett/Jasjaap|Mike</v>
       </c>
       <c r="L257">
@@ -45989,7 +45991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2023</v>
       </c>
@@ -46009,11 +46011,11 @@
         <v>129.04</v>
       </c>
       <c r="G258">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>260.86</v>
       </c>
       <c r="H258">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H258:H319" si="17">E258-F258</f>
         <v>2.7800000000000011</v>
       </c>
       <c r="I258" t="s">
@@ -46023,7 +46025,7 @@
         <v>30</v>
       </c>
       <c r="K258" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="K258:K319" si="18">_xlfn.CONCAT(_xlfn.CONCAT(I258,"|"), J258)</f>
         <v>Brand|Will</v>
       </c>
       <c r="L258">
@@ -46036,7 +46038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2023</v>
       </c>
@@ -46056,11 +46058,11 @@
         <v>104.32</v>
       </c>
       <c r="G259">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>236.38</v>
       </c>
       <c r="H259">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>27.740000000000009</v>
       </c>
       <c r="I259" t="s">
@@ -46070,7 +46072,7 @@
         <v>38</v>
       </c>
       <c r="K259" t="str">
-        <f t="shared" ref="K259:K319" si="16">_xlfn.CONCAT(_xlfn.CONCAT(I259,"|"), J259)</f>
+        <f t="shared" si="18"/>
         <v>Schulwolf|Eli</v>
       </c>
       <c r="L259">
@@ -46103,11 +46105,11 @@
         <v>90.18</v>
       </c>
       <c r="G260">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>207.36</v>
       </c>
       <c r="H260">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="I260" t="s">
@@ -46117,7 +46119,7 @@
         <v>36</v>
       </c>
       <c r="K260" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Cam|Todd</v>
       </c>
       <c r="L260">
@@ -46130,7 +46132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2023</v>
       </c>
@@ -46150,11 +46152,11 @@
         <v>139.5</v>
       </c>
       <c r="G261">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>287.86</v>
       </c>
       <c r="H261">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.8600000000000136</v>
       </c>
       <c r="I261" t="s">
@@ -46164,7 +46166,7 @@
         <v>26</v>
       </c>
       <c r="K261" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Kevin|Tommy</v>
       </c>
       <c r="L261">
@@ -46177,7 +46179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2023</v>
       </c>
@@ -46197,11 +46199,11 @@
         <v>106.52</v>
       </c>
       <c r="G262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>269.12</v>
       </c>
       <c r="H262">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>56.08</v>
       </c>
       <c r="I262" t="s">
@@ -46211,7 +46213,7 @@
         <v>26</v>
       </c>
       <c r="K262" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Brenton|Tommy</v>
       </c>
       <c r="L262">
@@ -46224,7 +46226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2023</v>
       </c>
@@ -46244,11 +46246,11 @@
         <v>102.38</v>
       </c>
       <c r="G263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>268.44</v>
       </c>
       <c r="H263">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>63.680000000000007</v>
       </c>
       <c r="I263" t="s">
@@ -46258,7 +46260,7 @@
         <v>46</v>
       </c>
       <c r="K263" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Will|Mike</v>
       </c>
       <c r="L263">
@@ -46291,11 +46293,11 @@
         <v>92.22</v>
       </c>
       <c r="G264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>204.45999999999998</v>
       </c>
       <c r="H264">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20.019999999999996</v>
       </c>
       <c r="I264" t="s">
@@ -46305,7 +46307,7 @@
         <v>32</v>
       </c>
       <c r="K264" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Todd|Schulwolf</v>
       </c>
       <c r="L264">
@@ -46318,7 +46320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2023</v>
       </c>
@@ -46338,11 +46340,11 @@
         <v>98.28</v>
       </c>
       <c r="G265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>212.46</v>
       </c>
       <c r="H265">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15.900000000000006</v>
       </c>
       <c r="I265" t="s">
@@ -46352,7 +46354,7 @@
         <v>28</v>
       </c>
       <c r="K265" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Brand|Jay</v>
       </c>
       <c r="L265">
@@ -46365,7 +46367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2023</v>
       </c>
@@ -46385,11 +46387,11 @@
         <v>121.52</v>
       </c>
       <c r="G266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>243.76</v>
       </c>
       <c r="H266">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.71999999999999886</v>
       </c>
       <c r="I266" t="s">
@@ -46399,7 +46401,7 @@
         <v>38</v>
       </c>
       <c r="K266" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Kevin|Eli</v>
       </c>
       <c r="L266">
@@ -46412,7 +46414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2023</v>
       </c>
@@ -46432,11 +46434,11 @@
         <v>98.06</v>
       </c>
       <c r="G267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>219.32</v>
       </c>
       <c r="H267">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23.200000000000003</v>
       </c>
       <c r="I267" t="s">
@@ -46446,7 +46448,7 @@
         <v>44</v>
       </c>
       <c r="K267" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Cam|Burnett/Jasjaap</v>
       </c>
       <c r="L267">
@@ -46459,7 +46461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2023</v>
       </c>
@@ -46479,11 +46481,11 @@
         <v>101.5</v>
       </c>
       <c r="G268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>206.01999999999998</v>
       </c>
       <c r="H268">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.019999999999996</v>
       </c>
       <c r="I268" t="s">
@@ -46493,7 +46495,7 @@
         <v>34</v>
       </c>
       <c r="K268" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Eli|Brenton</v>
       </c>
       <c r="L268">
@@ -46506,7 +46508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2023</v>
       </c>
@@ -46526,11 +46528,11 @@
         <v>119.36</v>
       </c>
       <c r="G269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>251</v>
       </c>
       <c r="H269">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.279999999999987</v>
       </c>
       <c r="I269" t="s">
@@ -46540,7 +46542,7 @@
         <v>28</v>
       </c>
       <c r="K269" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Mike|Jay</v>
       </c>
       <c r="L269">
@@ -46553,7 +46555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2023</v>
       </c>
@@ -46573,11 +46575,11 @@
         <v>97.74</v>
       </c>
       <c r="G270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>198.18</v>
       </c>
       <c r="H270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.7000000000000028</v>
       </c>
       <c r="I270" t="s">
@@ -46587,7 +46589,7 @@
         <v>30</v>
       </c>
       <c r="K270" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Burnett/Jasjaap|Will</v>
       </c>
       <c r="L270">
@@ -46600,7 +46602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2023</v>
       </c>
@@ -46620,11 +46622,11 @@
         <v>116.2</v>
       </c>
       <c r="G271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>245.92000000000002</v>
       </c>
       <c r="H271">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>13.519999999999996</v>
       </c>
       <c r="I271" t="s">
@@ -46634,7 +46636,7 @@
         <v>32</v>
       </c>
       <c r="K271" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Cam|Schulwolf</v>
       </c>
       <c r="L271">
@@ -46667,11 +46669,11 @@
         <v>122.24</v>
       </c>
       <c r="G272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>246.45999999999998</v>
       </c>
       <c r="H272">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.980000000000004</v>
       </c>
       <c r="I272" t="s">
@@ -46681,7 +46683,7 @@
         <v>36</v>
       </c>
       <c r="K272" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Kevin|Todd</v>
       </c>
       <c r="L272">
@@ -46694,7 +46696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2023</v>
       </c>
@@ -46714,11 +46716,11 @@
         <v>83.38</v>
       </c>
       <c r="G273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>189.8</v>
       </c>
       <c r="H273">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23.040000000000006</v>
       </c>
       <c r="I273" t="s">
@@ -46728,7 +46730,7 @@
         <v>26</v>
       </c>
       <c r="K273" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Brand|Tommy</v>
       </c>
       <c r="L273">
@@ -46761,11 +46763,11 @@
         <v>122.64</v>
       </c>
       <c r="G274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>257.12</v>
       </c>
       <c r="H274">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>11.839999999999989</v>
       </c>
       <c r="I274" t="s">
@@ -46775,7 +46777,7 @@
         <v>36</v>
       </c>
       <c r="K274" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Brenton|Todd</v>
       </c>
       <c r="L274">
@@ -46788,7 +46790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2023</v>
       </c>
@@ -46808,11 +46810,11 @@
         <v>97.06</v>
       </c>
       <c r="G275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>214</v>
       </c>
       <c r="H275">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>19.879999999999995</v>
       </c>
       <c r="I275" t="s">
@@ -46822,7 +46824,7 @@
         <v>30</v>
       </c>
       <c r="K275" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Jay|Will</v>
       </c>
       <c r="L275">
@@ -46835,7 +46837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2023</v>
       </c>
@@ -46855,11 +46857,11 @@
         <v>70.760000000000005</v>
       </c>
       <c r="G276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>232.28000000000003</v>
       </c>
       <c r="H276">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>90.76</v>
       </c>
       <c r="I276" t="s">
@@ -46869,7 +46871,7 @@
         <v>46</v>
       </c>
       <c r="K276" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Tommy|Mike</v>
       </c>
       <c r="L276">
@@ -46882,7 +46884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2023</v>
       </c>
@@ -46902,11 +46904,11 @@
         <v>116.08</v>
       </c>
       <c r="G277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>232.64</v>
       </c>
       <c r="H277">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.48000000000000398</v>
       </c>
       <c r="I277" t="s">
@@ -46916,7 +46918,7 @@
         <v>38</v>
       </c>
       <c r="K277" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Brand|Eli</v>
       </c>
       <c r="L277">
@@ -46929,7 +46931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2023</v>
       </c>
@@ -46949,11 +46951,11 @@
         <v>61.96</v>
       </c>
       <c r="G278">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>169.88</v>
       </c>
       <c r="H278">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>45.96</v>
       </c>
       <c r="I278" t="s">
@@ -46963,7 +46965,7 @@
         <v>24</v>
       </c>
       <c r="K278" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Cam|Kevin</v>
       </c>
       <c r="L278">
@@ -46976,7 +46978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2023</v>
       </c>
@@ -46996,11 +46998,11 @@
         <v>72.56</v>
       </c>
       <c r="G279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>198.62</v>
       </c>
       <c r="H279">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>53.5</v>
       </c>
       <c r="I279" t="s">
@@ -47010,7 +47012,7 @@
         <v>32</v>
       </c>
       <c r="K279" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Burnett/Jasjaap|Schulwolf</v>
       </c>
       <c r="L279">
@@ -47023,7 +47025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2023</v>
       </c>
@@ -47043,11 +47045,11 @@
         <v>152.58000000000001</v>
       </c>
       <c r="G280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>319.8</v>
       </c>
       <c r="H280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14.639999999999986</v>
       </c>
       <c r="I280" t="s">
@@ -47057,7 +47059,7 @@
         <v>24</v>
       </c>
       <c r="K280" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Brenton|Kevin</v>
       </c>
       <c r="L280">
@@ -47070,7 +47072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2023</v>
       </c>
@@ -47090,11 +47092,11 @@
         <v>90.04</v>
       </c>
       <c r="G281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>214.26</v>
       </c>
       <c r="H281">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>34.179999999999993</v>
       </c>
       <c r="I281" t="s">
@@ -47104,7 +47106,7 @@
         <v>26</v>
       </c>
       <c r="K281" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Will|Tommy</v>
       </c>
       <c r="L281">
@@ -47117,7 +47119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2023</v>
       </c>
@@ -47137,11 +47139,11 @@
         <v>106.38</v>
       </c>
       <c r="G282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>226.78</v>
       </c>
       <c r="H282">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14.02000000000001</v>
       </c>
       <c r="I282" t="s">
@@ -47151,7 +47153,7 @@
         <v>34</v>
       </c>
       <c r="K282" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Will|Brenton</v>
       </c>
       <c r="L282">
@@ -47164,7 +47166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2023</v>
       </c>
@@ -47184,11 +47186,11 @@
         <v>88.68</v>
       </c>
       <c r="G283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>181.34</v>
       </c>
       <c r="H283">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.9799999999999898</v>
       </c>
       <c r="I283" t="s">
@@ -47198,7 +47200,7 @@
         <v>26</v>
       </c>
       <c r="K283" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Kevin|Tommy</v>
       </c>
       <c r="L283">
@@ -47211,7 +47213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2020</v>
       </c>
@@ -47231,11 +47233,11 @@
         <v>103.82</v>
       </c>
       <c r="G284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>221.64</v>
       </c>
       <c r="H284">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="I284" t="s">
@@ -47245,7 +47247,7 @@
         <v>26</v>
       </c>
       <c r="K284" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Will|Tommy</v>
       </c>
       <c r="L284">
@@ -47258,7 +47260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2020</v>
       </c>
@@ -47278,11 +47280,11 @@
         <v>100.36</v>
       </c>
       <c r="G285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>221.1</v>
       </c>
       <c r="H285">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20.379999999999995</v>
       </c>
       <c r="I285" t="s">
@@ -47292,7 +47294,7 @@
         <v>42</v>
       </c>
       <c r="K285" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Jay|Cam</v>
       </c>
       <c r="L285">
@@ -47305,7 +47307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2020</v>
       </c>
@@ -47325,11 +47327,11 @@
         <v>65.38</v>
       </c>
       <c r="G286">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G286:G317" si="19">E286+F286</f>
         <v>170.5</v>
       </c>
       <c r="H286">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>39.740000000000009</v>
       </c>
       <c r="I286" t="s">
@@ -47339,7 +47341,7 @@
         <v>28</v>
       </c>
       <c r="K286" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Will|Jay</v>
       </c>
       <c r="L286">
@@ -47352,7 +47354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2020</v>
       </c>
@@ -47372,11 +47374,11 @@
         <v>122.42</v>
       </c>
       <c r="G287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>255.48000000000002</v>
       </c>
       <c r="H287">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10.64</v>
       </c>
       <c r="I287" t="s">
@@ -47386,7 +47388,7 @@
         <v>42</v>
       </c>
       <c r="K287" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Tommy|Cam</v>
       </c>
       <c r="L287">
@@ -47419,11 +47421,11 @@
         <v>106.82</v>
       </c>
       <c r="G288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>248.07999999999998</v>
       </c>
       <c r="H288">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>34.44</v>
       </c>
       <c r="I288" t="s">
@@ -47433,7 +47435,7 @@
         <v>26</v>
       </c>
       <c r="K288" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Todd|Tommy</v>
       </c>
       <c r="L288">
@@ -47446,7 +47448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2019</v>
       </c>
@@ -47466,11 +47468,11 @@
         <v>82.14</v>
       </c>
       <c r="G289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>172.51999999999998</v>
       </c>
       <c r="H289">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.2399999999999949</v>
       </c>
       <c r="I289" t="s">
@@ -47480,7 +47482,7 @@
         <v>30</v>
       </c>
       <c r="K289" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Jay|Will</v>
       </c>
       <c r="L289">
@@ -47513,11 +47515,11 @@
         <v>130.97999999999999</v>
       </c>
       <c r="G290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>270.89999999999998</v>
       </c>
       <c r="H290">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.9399999999999977</v>
       </c>
       <c r="I290" t="s">
@@ -47527,7 +47529,7 @@
         <v>36</v>
       </c>
       <c r="K290" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Jay|Todd</v>
       </c>
       <c r="L290">
@@ -47540,7 +47542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2019</v>
       </c>
@@ -47560,11 +47562,11 @@
         <v>78.16</v>
       </c>
       <c r="G291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>185.12</v>
       </c>
       <c r="H291">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>28.799999999999997</v>
       </c>
       <c r="I291" t="s">
@@ -47574,7 +47576,7 @@
         <v>30</v>
       </c>
       <c r="K291" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Tommy|Will</v>
       </c>
       <c r="L291">
@@ -47587,7 +47589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2018</v>
       </c>
@@ -47607,11 +47609,11 @@
         <v>75.84</v>
       </c>
       <c r="G292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>183.60000000000002</v>
       </c>
       <c r="H292">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>31.92</v>
       </c>
       <c r="I292" t="s">
@@ -47621,7 +47623,7 @@
         <v>38</v>
       </c>
       <c r="K292" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Burnett|Eli</v>
       </c>
       <c r="L292">
@@ -47634,7 +47636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2018</v>
       </c>
@@ -47654,11 +47656,11 @@
         <v>86.5</v>
       </c>
       <c r="G293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>178.4</v>
       </c>
       <c r="H293">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="I293" t="s">
@@ -47668,7 +47670,7 @@
         <v>30</v>
       </c>
       <c r="K293" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Mike|Will</v>
       </c>
       <c r="L293">
@@ -47681,7 +47683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2018</v>
       </c>
@@ -47701,11 +47703,11 @@
         <v>100.54</v>
       </c>
       <c r="G294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>226.66000000000003</v>
       </c>
       <c r="H294">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>25.58</v>
       </c>
       <c r="I294" t="s">
@@ -47715,7 +47717,7 @@
         <v>72</v>
       </c>
       <c r="K294" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Mike|Burnett</v>
       </c>
       <c r="L294">
@@ -47728,7 +47730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2018</v>
       </c>
@@ -47748,11 +47750,11 @@
         <v>104.58</v>
       </c>
       <c r="G295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>224.07999999999998</v>
       </c>
       <c r="H295">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14.920000000000002</v>
       </c>
       <c r="I295" t="s">
@@ -47762,7 +47764,7 @@
         <v>38</v>
       </c>
       <c r="K295" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Will|Eli</v>
       </c>
       <c r="L295">
@@ -47775,7 +47777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2017</v>
       </c>
@@ -47795,11 +47797,11 @@
         <v>52.68</v>
       </c>
       <c r="G296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>179.46</v>
       </c>
       <c r="H296">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>74.099999999999994</v>
       </c>
       <c r="I296" t="s">
@@ -47809,7 +47811,7 @@
         <v>30</v>
       </c>
       <c r="K296" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Schulwolf|Will</v>
       </c>
       <c r="L296">
@@ -47822,7 +47824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2017</v>
       </c>
@@ -47842,11 +47844,11 @@
         <v>115.34</v>
       </c>
       <c r="G297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>243.06</v>
       </c>
       <c r="H297">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.379999999999995</v>
       </c>
       <c r="I297" t="s">
@@ -47856,7 +47858,7 @@
         <v>42</v>
       </c>
       <c r="K297" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Eli|Cam</v>
       </c>
       <c r="L297">
@@ -47869,7 +47871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2017</v>
       </c>
@@ -47889,11 +47891,11 @@
         <v>75.260000000000005</v>
       </c>
       <c r="G298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>217.07999999999998</v>
       </c>
       <c r="H298">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>66.559999999999988</v>
       </c>
       <c r="I298" t="s">
@@ -47903,7 +47905,7 @@
         <v>38</v>
       </c>
       <c r="K298" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Schulwolf|Eli</v>
       </c>
       <c r="L298">
@@ -47916,7 +47918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2017</v>
       </c>
@@ -47936,11 +47938,11 @@
         <v>81.739999999999995</v>
       </c>
       <c r="G299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>194</v>
       </c>
       <c r="H299">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>30.52000000000001</v>
       </c>
       <c r="I299" t="s">
@@ -47950,7 +47952,7 @@
         <v>30</v>
       </c>
       <c r="K299" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Cam|Will</v>
       </c>
       <c r="L299">
@@ -47963,7 +47965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2016</v>
       </c>
@@ -47983,11 +47985,11 @@
         <v>88.26</v>
       </c>
       <c r="G300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>180.38</v>
       </c>
       <c r="H300">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.8599999999999994</v>
       </c>
       <c r="I300" t="s">
@@ -47997,7 +47999,7 @@
         <v>79</v>
       </c>
       <c r="K300" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Burnett|Jasjaap</v>
       </c>
       <c r="L300">
@@ -48010,7 +48012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2016</v>
       </c>
@@ -48030,11 +48032,11 @@
         <v>98.56</v>
       </c>
       <c r="G301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>211.7</v>
       </c>
       <c r="H301">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14.579999999999998</v>
       </c>
       <c r="I301" t="s">
@@ -48044,7 +48046,7 @@
         <v>30</v>
       </c>
       <c r="K301" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Kevin|Will</v>
       </c>
       <c r="L301">
@@ -48057,7 +48059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2016</v>
       </c>
@@ -48077,11 +48079,11 @@
         <v>131.18</v>
       </c>
       <c r="G302">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>271.76</v>
       </c>
       <c r="H302">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.4000000000000057</v>
       </c>
       <c r="I302" t="s">
@@ -48091,7 +48093,7 @@
         <v>72</v>
       </c>
       <c r="K302" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Kevin|Burnett</v>
       </c>
       <c r="L302">
@@ -48104,7 +48106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2016</v>
       </c>
@@ -48124,11 +48126,11 @@
         <v>71.58</v>
       </c>
       <c r="G303">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>169.14</v>
       </c>
       <c r="H303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>25.980000000000004</v>
       </c>
       <c r="I303" t="s">
@@ -48138,7 +48140,7 @@
         <v>30</v>
       </c>
       <c r="K303" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Jasjaap|Will</v>
       </c>
       <c r="L303">
@@ -48151,7 +48153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2015</v>
       </c>
@@ -48171,11 +48173,11 @@
         <v>107.86</v>
       </c>
       <c r="G304">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>250.7</v>
       </c>
       <c r="H304">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>34.980000000000004</v>
       </c>
       <c r="I304" t="s">
@@ -48185,7 +48187,7 @@
         <v>104</v>
       </c>
       <c r="K304" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Jay|Codola</v>
       </c>
       <c r="L304">
@@ -48218,11 +48220,11 @@
         <v>84.8</v>
       </c>
       <c r="G305">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>206.06</v>
       </c>
       <c r="H305">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>36.460000000000008</v>
       </c>
       <c r="I305" t="s">
@@ -48232,7 +48234,7 @@
         <v>36</v>
       </c>
       <c r="K305" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Eli|Todd</v>
       </c>
       <c r="L305">
@@ -48245,7 +48247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2015</v>
       </c>
@@ -48265,11 +48267,11 @@
         <v>77.14</v>
       </c>
       <c r="G306">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>169.18</v>
       </c>
       <c r="H306">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14.900000000000006</v>
       </c>
       <c r="I306" t="s">
@@ -48279,7 +48281,7 @@
         <v>38</v>
       </c>
       <c r="K306" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Jay|Eli</v>
       </c>
       <c r="L306">
@@ -48312,11 +48314,11 @@
         <v>105.76</v>
       </c>
       <c r="G307">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>230.02</v>
       </c>
       <c r="H307">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>18.5</v>
       </c>
       <c r="I307" t="s">
@@ -48326,7 +48328,7 @@
         <v>104</v>
       </c>
       <c r="K307" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Todd|Codola</v>
       </c>
       <c r="L307">
@@ -48339,7 +48341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2014</v>
       </c>
@@ -48359,11 +48361,11 @@
         <v>81.86</v>
       </c>
       <c r="G308">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>187.14</v>
       </c>
       <c r="H308">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23.42</v>
       </c>
       <c r="I308" t="s">
@@ -48373,7 +48375,7 @@
         <v>72</v>
       </c>
       <c r="K308" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Tommy|Burnett</v>
       </c>
       <c r="L308">
@@ -48386,7 +48388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2014</v>
       </c>
@@ -48406,11 +48408,11 @@
         <v>59.52</v>
       </c>
       <c r="G309">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>171.5</v>
       </c>
       <c r="H309">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>52.46</v>
       </c>
       <c r="I309" t="s">
@@ -48420,7 +48422,7 @@
         <v>104</v>
       </c>
       <c r="K309" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Brenton|Codola</v>
       </c>
       <c r="L309">
@@ -48433,7 +48435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2014</v>
       </c>
@@ -48453,11 +48455,11 @@
         <v>72.56</v>
       </c>
       <c r="G310">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>209.7</v>
       </c>
       <c r="H310">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>64.579999999999984</v>
       </c>
       <c r="I310" t="s">
@@ -48467,7 +48469,7 @@
         <v>26</v>
       </c>
       <c r="K310" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Brenton|Tommy</v>
       </c>
       <c r="L310">
@@ -48480,7 +48482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2014</v>
       </c>
@@ -48500,11 +48502,11 @@
         <v>66.540000000000006</v>
       </c>
       <c r="G311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>134.18</v>
       </c>
       <c r="H311">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0999999999999943</v>
       </c>
       <c r="I311" t="s">
@@ -48514,7 +48516,7 @@
         <v>72</v>
       </c>
       <c r="K311" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Codola|Burnett</v>
       </c>
       <c r="L311">
@@ -48527,7 +48529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2013</v>
       </c>
@@ -48547,11 +48549,11 @@
         <v>74.8</v>
       </c>
       <c r="G312">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>242.32</v>
       </c>
       <c r="H312">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>92.720000000000013</v>
       </c>
       <c r="I312" t="s">
@@ -48561,7 +48563,7 @@
         <v>40</v>
       </c>
       <c r="K312" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Schulwolf|Brand</v>
       </c>
       <c r="L312">
@@ -48574,7 +48576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2013</v>
       </c>
@@ -48594,11 +48596,11 @@
         <v>87.42</v>
       </c>
       <c r="G313">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>224.44</v>
       </c>
       <c r="H313">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>49.600000000000009</v>
       </c>
       <c r="I313" t="s">
@@ -48608,7 +48610,7 @@
         <v>125</v>
       </c>
       <c r="K313" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Codola|Juleon</v>
       </c>
       <c r="L313">
@@ -48621,7 +48623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2013</v>
       </c>
@@ -48641,11 +48643,11 @@
         <v>87.8</v>
       </c>
       <c r="G314">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>189.44</v>
       </c>
       <c r="H314">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>13.840000000000003</v>
       </c>
       <c r="I314" t="s">
@@ -48655,7 +48657,7 @@
         <v>104</v>
       </c>
       <c r="K314" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Schulwolf|Codola</v>
       </c>
       <c r="L314">
@@ -48668,7 +48670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2013</v>
       </c>
@@ -48688,11 +48690,11 @@
         <v>74.78</v>
       </c>
       <c r="G315">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>164.76</v>
       </c>
       <c r="H315">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15.200000000000003</v>
       </c>
       <c r="I315" t="s">
@@ -48702,7 +48704,7 @@
         <v>40</v>
       </c>
       <c r="K315" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Juleon|Brand</v>
       </c>
       <c r="L315">
@@ -48715,7 +48717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2012</v>
       </c>
@@ -48735,11 +48737,11 @@
         <v>99.56</v>
       </c>
       <c r="G316">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>202.57999999999998</v>
       </c>
       <c r="H316">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.4599999999999937</v>
       </c>
       <c r="I316" t="s">
@@ -48749,7 +48751,7 @@
         <v>40</v>
       </c>
       <c r="K316" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Will|Brand</v>
       </c>
       <c r="L316">
@@ -48762,7 +48764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2012</v>
       </c>
@@ -48782,11 +48784,11 @@
         <v>100.38</v>
       </c>
       <c r="G317">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>202.94</v>
       </c>
       <c r="H317">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.1800000000000068</v>
       </c>
       <c r="I317" t="s">
@@ -48796,7 +48798,7 @@
         <v>26</v>
       </c>
       <c r="K317" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Codola|Tommy</v>
       </c>
       <c r="L317">
@@ -48809,7 +48811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2012</v>
       </c>
@@ -48829,11 +48831,11 @@
         <v>103.78</v>
       </c>
       <c r="G318">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G318:G319" si="20">E318+F318</f>
         <v>233.92</v>
       </c>
       <c r="H318">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>26.359999999999985</v>
       </c>
       <c r="I318" t="s">
@@ -48843,7 +48845,7 @@
         <v>30</v>
       </c>
       <c r="K318" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Codola|Will</v>
       </c>
       <c r="L318">
@@ -48856,7 +48858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2012</v>
       </c>
@@ -48876,11 +48878,11 @@
         <v>70.540000000000006</v>
       </c>
       <c r="G319">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>192.2</v>
       </c>
       <c r="H319">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>51.11999999999999</v>
       </c>
       <c r="I319" t="s">
@@ -48890,7 +48892,7 @@
         <v>26</v>
       </c>
       <c r="K319" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Brand|Tommy</v>
       </c>
       <c r="L319">
@@ -48904,38 +48906,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K319">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Brand/Kevin|Todd"/>
-        <filter val="Brand|Todd"/>
-        <filter val="Brenton|Todd"/>
-        <filter val="Cam|Todd"/>
-        <filter val="Eli|Todd"/>
-        <filter val="Jasjaap|Todd"/>
-        <filter val="Jay|Todd"/>
-        <filter val="Kevin|Todd"/>
-        <filter val="Mike|Todd"/>
-        <filter val="Schulwolf|Todd"/>
-        <filter val="Todd|Brenton"/>
-        <filter val="Todd|Burnett"/>
-        <filter val="Todd|Burnett/Jasjaap"/>
-        <filter val="Todd|Cam"/>
-        <filter val="Todd|Codola"/>
-        <filter val="Todd|Eli"/>
-        <filter val="Todd|Jasjaap"/>
-        <filter val="Todd|Jay"/>
-        <filter val="Todd|Jay/Brand"/>
-        <filter val="Todd|Kevin"/>
-        <filter val="Todd|Mike"/>
-        <filter val="Todd|Schulwolf"/>
-        <filter val="Todd|Tommy"/>
-        <filter val="Todd|Will"/>
-        <filter val="Tommy|Todd"/>
-        <filter val="Will|Todd"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K319"/>
   <conditionalFormatting sqref="G2:G319">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -49004,26 +48975,26 @@
     </row>
     <row r="2" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="312" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
-      <c r="H2" s="309"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="314"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="308"/>
-      <c r="M2" s="308"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="308"/>
-      <c r="P2" s="308"/>
-      <c r="Q2" s="309"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
+      <c r="P2" s="313"/>
+      <c r="Q2" s="314"/>
       <c r="R2" s="35"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -56177,23 +56148,23 @@
     </row>
     <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="309" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="306"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="311"/>
       <c r="H2" s="133"/>
-      <c r="I2" s="304" t="s">
+      <c r="I2" s="309" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="305"/>
-      <c r="K2" s="305"/>
-      <c r="L2" s="305"/>
-      <c r="M2" s="305"/>
-      <c r="N2" s="306"/>
+      <c r="J2" s="310"/>
+      <c r="K2" s="310"/>
+      <c r="L2" s="310"/>
+      <c r="M2" s="310"/>
+      <c r="N2" s="311"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
